--- a/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10103_Client_Registration.xlsx
+++ b/en/Sample_Project/Design_Document/B1_Client_Management_System/030_Application_Design/010_System_Functional_Design/System_Function_Design_Document(Web_Services)_B_10103_Client_Registration.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBF1D32-AC7F-4786-AFDB-AD154A4F0005}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4524D5-9B51-448C-91AC-AF7491F89841}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="360" windowWidth="27090" windowHeight="10830" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="36" r:id="rId1"/>
     <sheet name="Revision history" sheetId="37" r:id="rId2"/>
     <sheet name="Contents" sheetId="42" r:id="rId3"/>
     <sheet name="1.1. Web service subfunction" sheetId="13" r:id="rId4"/>
-    <sheet name="2. B010103 Client registration" sheetId="43" r:id="rId5"/>
-    <sheet name="1.2. Process flow" sheetId="48" r:id="rId6"/>
+    <sheet name="1.2. Process flow" sheetId="48" r:id="rId5"/>
+    <sheet name="2. B010103 Client registration" sheetId="43" r:id="rId6"/>
     <sheet name="Data" sheetId="49" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Web service subfunction'!$A$1:$AI$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'2. B010103 Client registration'!$A$1:$AI$72</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B010103 Client registration'!$A$1:$AI$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Contents!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Cover!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">Data!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Revision history'!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1.1. Web service subfunction'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="5">'1.2. Process flow'!$1:$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. B010103 Client registration'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'1.2. Process flow'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'2. B010103 Client registration'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">Contents!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Revision history'!$1:$4</definedName>
     <definedName name="種別一覧">Data!$A$2:$A$7</definedName>
@@ -36,9 +36,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -46,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
   <si>
     <t>No.</t>
   </si>
@@ -168,10 +166,6 @@
     <t>Processing result</t>
   </si>
   <si>
-    <t>201
-(Created)</t>
-  </si>
-  <si>
     <t>When processing ends normally.</t>
   </si>
   <si>
@@ -190,9 +184,6 @@
   </si>
   <si>
     <t>2.3.1. Item definition</t>
-  </si>
-  <si>
-    <t>Refer to [External interface design document_B10103C_Client registration request message_(JSON)].</t>
   </si>
   <si>
     <t>Message ID</t>
@@ -228,34 +219,7 @@
     <t>(By domain)</t>
   </si>
   <si>
-    <t>If a validation error occurs, a business exception is thrown.</t>
-  </si>
-  <si>
-    <t>Fault code</t>
-  </si>
-  <si>
-    <t>400(Bad Request)</t>
-  </si>
-  <si>
-    <t>FB1999901</t>
-  </si>
-  <si>
     <t>(2) Duplicate registration check</t>
-  </si>
-  <si>
-    <t>Check whether the client data with the specified client name exists.</t>
-  </si>
-  <si>
-    <t>If the specified client name is present, a business exception is thrown.</t>
-  </si>
-  <si>
-    <t>FB1999904</t>
-  </si>
-  <si>
-    <t>errors.register.duplicate</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>(3) Registration processing</t>
@@ -271,9 +235,6 @@
   </si>
   <si>
     <t>2.5.1. Item definition</t>
-  </si>
-  <si>
-    <t>No output data</t>
   </si>
   <si>
     <t>2.5.2 Editing specifications</t>
@@ -458,6 +419,87 @@
       </rPr>
       <t>）</t>
     </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>200
+(OK)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Parameter name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Domain name</t>
+  </si>
+  <si>
+    <t>clientName</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Client name</t>
+  </si>
+  <si>
+    <t>industryCode</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Industry code</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Checks whether the same customer data as the specified customer name exists.</t>
+  </si>
+  <si>
+    <t>If it exists, a DuplicateRegistrationException exception is sent.</t>
+  </si>
+  <si>
+    <t>B10103P</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>clientId</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>client</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client_id</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>client_name</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>industry_code</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Client registration request response message</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Refer to  [External_Interface_Design_B10103P_Client_Registration_Response_Message_(JSON)].</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Refer to [External_Interface_Design_B10103C_Client_Registration_Request_Message__(JSON)].</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -889,7 +931,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1158,437 +1200,14 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1609,6 +1228,169 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1618,6 +1400,15 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1636,42 +1427,345 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -5466,7 +5560,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="12"/>
       <c r="J23" s="6" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
@@ -5484,12 +5578,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="114">
+      <c r="I25" s="126">
         <f ca="1">IF(INDIRECT("'Revision history'!D8")="","",MAX(INDIRECT("'Revision history'!D8"):INDIRECT("'Revision history'!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="114"/>
-      <c r="K25" s="114"/>
+      <c r="J25" s="126"/>
+      <c r="K25" s="126"/>
       <c r="L25" s="12"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -6119,56 +6213,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="143" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="118" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="220" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="222"/>
-      <c r="S1" s="223" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="143" t="s">
-        <v>99</v>
-      </c>
-      <c r="AB1" s="145"/>
-      <c r="AC1" s="226" t="s">
+      <c r="A1" s="144" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="147" t="s">
+        <v>85</v>
+      </c>
+      <c r="P1" s="148"/>
+      <c r="Q1" s="148"/>
+      <c r="R1" s="149"/>
+      <c r="S1" s="156" t="s">
+        <v>86</v>
+      </c>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="144" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB1" s="146"/>
+      <c r="AC1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="255">
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="130">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="256"/>
-      <c r="AI1" s="257"/>
+      <c r="AH1" s="131"/>
+      <c r="AI1" s="132"/>
       <c r="AJ1" s="83"/>
       <c r="AK1" s="83"/>
       <c r="AL1" s="83"/>
@@ -6176,53 +6270,53 @@
       <c r="AN1" s="84"/>
     </row>
     <row r="2" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="143" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="145"/>
-      <c r="E2" s="118" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="230"/>
-      <c r="Q2" s="230"/>
-      <c r="R2" s="231"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="233"/>
-      <c r="U2" s="233"/>
-      <c r="V2" s="233"/>
-      <c r="W2" s="233"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="233"/>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="143" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB2" s="145"/>
-      <c r="AC2" s="235" t="str">
+      <c r="A2" s="144" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="138" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="151"/>
+      <c r="Q2" s="151"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="144" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB2" s="146"/>
+      <c r="AC2" s="141" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="236"/>
-      <c r="AE2" s="236"/>
-      <c r="AF2" s="237"/>
-      <c r="AG2" s="255" t="str">
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="130" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="256"/>
-      <c r="AI2" s="257"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="132"/>
       <c r="AJ2" s="83"/>
       <c r="AK2" s="83"/>
       <c r="AL2" s="83"/>
@@ -6230,1105 +6324,1261 @@
       <c r="AN2" s="83"/>
     </row>
     <row r="3" spans="1:40" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="143" t="s">
-        <v>103</v>
-      </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="118" t="s">
-        <v>104</v>
-      </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="238"/>
-      <c r="P3" s="239"/>
-      <c r="Q3" s="239"/>
-      <c r="R3" s="240"/>
-      <c r="S3" s="241"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
-      <c r="W3" s="242"/>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="145"/>
-      <c r="AC3" s="226"/>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="255"/>
-      <c r="AH3" s="256"/>
-      <c r="AI3" s="257"/>
+      <c r="A3" s="144" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="154"/>
+      <c r="Q3" s="154"/>
+      <c r="R3" s="155"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="144"/>
+      <c r="AB3" s="146"/>
+      <c r="AC3" s="127"/>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="130"/>
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="132"/>
       <c r="AJ3" s="83"/>
       <c r="AK3" s="83"/>
       <c r="AL3" s="83"/>
       <c r="AM3" s="83"/>
       <c r="AN3" s="83"/>
     </row>
-    <row r="5" spans="1:40" s="258" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N5" s="259" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA5" s="260"/>
-      <c r="AB5" s="260"/>
-      <c r="AC5" s="261"/>
-      <c r="AD5" s="262"/>
-      <c r="AE5" s="262"/>
-      <c r="AF5" s="262"/>
-      <c r="AG5" s="260"/>
-      <c r="AH5" s="260"/>
-      <c r="AI5" s="260"/>
-    </row>
-    <row r="6" spans="1:40" s="258" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="N6" s="259"/>
-      <c r="AA6" s="260"/>
-      <c r="AB6" s="260"/>
-      <c r="AC6" s="261"/>
-      <c r="AD6" s="262"/>
-      <c r="AE6" s="262"/>
-      <c r="AF6" s="262"/>
-      <c r="AG6" s="260"/>
-      <c r="AH6" s="260"/>
-      <c r="AI6" s="260"/>
-    </row>
-    <row r="7" spans="1:40" s="263" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="244" t="s">
+    <row r="5" spans="1:40" s="117" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N5" s="118" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA5" s="119"/>
+      <c r="AB5" s="119"/>
+      <c r="AC5" s="120"/>
+      <c r="AD5" s="121"/>
+      <c r="AE5" s="121"/>
+      <c r="AF5" s="121"/>
+      <c r="AG5" s="119"/>
+      <c r="AH5" s="119"/>
+      <c r="AI5" s="119"/>
+    </row>
+    <row r="6" spans="1:40" s="117" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N6" s="118"/>
+      <c r="AA6" s="119"/>
+      <c r="AB6" s="119"/>
+      <c r="AC6" s="120"/>
+      <c r="AD6" s="121"/>
+      <c r="AE6" s="121"/>
+      <c r="AF6" s="121"/>
+      <c r="AG6" s="119"/>
+      <c r="AH6" s="119"/>
+      <c r="AI6" s="119"/>
+    </row>
+    <row r="7" spans="1:40" s="122" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="116" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="245" t="s">
-        <v>106</v>
-      </c>
-      <c r="C7" s="246"/>
-      <c r="D7" s="247" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" s="248"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="247" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" s="248"/>
-      <c r="I7" s="249"/>
-      <c r="J7" s="247" t="s">
-        <v>109</v>
-      </c>
-      <c r="K7" s="248"/>
-      <c r="L7" s="248"/>
-      <c r="M7" s="248"/>
-      <c r="N7" s="248"/>
-      <c r="O7" s="248"/>
-      <c r="P7" s="249"/>
-      <c r="Q7" s="247" t="s">
-        <v>110</v>
-      </c>
-      <c r="R7" s="248"/>
-      <c r="S7" s="248"/>
-      <c r="T7" s="248"/>
-      <c r="U7" s="248"/>
-      <c r="V7" s="248"/>
-      <c r="W7" s="248"/>
-      <c r="X7" s="248"/>
-      <c r="Y7" s="248"/>
-      <c r="Z7" s="248"/>
-      <c r="AA7" s="248"/>
-      <c r="AB7" s="248"/>
-      <c r="AC7" s="248"/>
-      <c r="AD7" s="248"/>
-      <c r="AE7" s="249"/>
-      <c r="AF7" s="247" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG7" s="248"/>
-      <c r="AH7" s="248"/>
-      <c r="AI7" s="249"/>
-    </row>
-    <row r="8" spans="1:40" s="263" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="264">
+      <c r="B7" s="133" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="134"/>
+      <c r="D7" s="135" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="136"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="135" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="136"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="135" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="136"/>
+      <c r="L7" s="136"/>
+      <c r="M7" s="136"/>
+      <c r="N7" s="136"/>
+      <c r="O7" s="136"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="135" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136"/>
+      <c r="U7" s="136"/>
+      <c r="V7" s="136"/>
+      <c r="W7" s="136"/>
+      <c r="X7" s="136"/>
+      <c r="Y7" s="136"/>
+      <c r="Z7" s="136"/>
+      <c r="AA7" s="136"/>
+      <c r="AB7" s="136"/>
+      <c r="AC7" s="136"/>
+      <c r="AD7" s="136"/>
+      <c r="AE7" s="137"/>
+      <c r="AF7" s="135" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG7" s="136"/>
+      <c r="AH7" s="136"/>
+      <c r="AI7" s="137"/>
+    </row>
+    <row r="8" spans="1:40" s="122" customFormat="1" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="123">
         <v>1</v>
       </c>
-      <c r="B8" s="250" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="251"/>
-      <c r="D8" s="265">
+      <c r="B8" s="177" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="178"/>
+      <c r="D8" s="179">
         <v>43718</v>
       </c>
-      <c r="E8" s="266"/>
-      <c r="F8" s="267"/>
-      <c r="G8" s="252" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" s="253"/>
-      <c r="I8" s="254"/>
-      <c r="J8" s="268"/>
-      <c r="K8" s="269"/>
-      <c r="L8" s="269"/>
-      <c r="M8" s="269"/>
-      <c r="N8" s="269"/>
-      <c r="O8" s="269"/>
-      <c r="P8" s="270"/>
-      <c r="Q8" s="271"/>
-      <c r="R8" s="272"/>
-      <c r="S8" s="272"/>
-      <c r="T8" s="272"/>
-      <c r="U8" s="272"/>
-      <c r="V8" s="272"/>
-      <c r="W8" s="272"/>
-      <c r="X8" s="272"/>
-      <c r="Y8" s="272"/>
-      <c r="Z8" s="272"/>
-      <c r="AA8" s="272"/>
-      <c r="AB8" s="272"/>
-      <c r="AC8" s="272"/>
-      <c r="AD8" s="272"/>
-      <c r="AE8" s="273"/>
-      <c r="AF8" s="268" t="s">
+      <c r="E8" s="180"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="182" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="183"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="186"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="186"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="186"/>
+      <c r="P8" s="187"/>
+      <c r="Q8" s="188"/>
+      <c r="R8" s="189"/>
+      <c r="S8" s="189"/>
+      <c r="T8" s="189"/>
+      <c r="U8" s="189"/>
+      <c r="V8" s="189"/>
+      <c r="W8" s="189"/>
+      <c r="X8" s="189"/>
+      <c r="Y8" s="189"/>
+      <c r="Z8" s="189"/>
+      <c r="AA8" s="189"/>
+      <c r="AB8" s="189"/>
+      <c r="AC8" s="189"/>
+      <c r="AD8" s="189"/>
+      <c r="AE8" s="190"/>
+      <c r="AF8" s="185" t="s">
         <v>1</v>
       </c>
-      <c r="AG8" s="269"/>
-      <c r="AH8" s="269"/>
-      <c r="AI8" s="270"/>
-    </row>
-    <row r="9" spans="1:40" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="274"/>
-      <c r="B9" s="275"/>
-      <c r="C9" s="276"/>
-      <c r="D9" s="277"/>
-      <c r="E9" s="278"/>
-      <c r="F9" s="279"/>
-      <c r="G9" s="277"/>
-      <c r="H9" s="280"/>
-      <c r="I9" s="276"/>
-      <c r="J9" s="281"/>
-      <c r="K9" s="282"/>
-      <c r="L9" s="282"/>
-      <c r="M9" s="282"/>
-      <c r="N9" s="282"/>
-      <c r="O9" s="282"/>
-      <c r="P9" s="283"/>
-      <c r="Q9" s="157"/>
-      <c r="R9" s="158"/>
-      <c r="S9" s="158"/>
-      <c r="T9" s="158"/>
-      <c r="U9" s="158"/>
-      <c r="V9" s="158"/>
-      <c r="W9" s="158"/>
-      <c r="X9" s="158"/>
-      <c r="Y9" s="158"/>
-      <c r="Z9" s="158"/>
-      <c r="AA9" s="158"/>
-      <c r="AB9" s="158"/>
-      <c r="AC9" s="158"/>
-      <c r="AD9" s="158"/>
-      <c r="AE9" s="159"/>
-      <c r="AF9" s="281"/>
-      <c r="AG9" s="282"/>
-      <c r="AH9" s="282"/>
-      <c r="AI9" s="283"/>
-    </row>
-    <row r="10" spans="1:40" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="274"/>
-      <c r="B10" s="275"/>
-      <c r="C10" s="276"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="280"/>
-      <c r="I10" s="276"/>
-      <c r="J10" s="281"/>
-      <c r="K10" s="282"/>
-      <c r="L10" s="282"/>
-      <c r="M10" s="282"/>
-      <c r="N10" s="282"/>
-      <c r="O10" s="282"/>
-      <c r="P10" s="283"/>
-      <c r="Q10" s="157"/>
-      <c r="R10" s="158"/>
-      <c r="S10" s="158"/>
-      <c r="T10" s="158"/>
-      <c r="U10" s="158"/>
-      <c r="V10" s="158"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="159"/>
-      <c r="AF10" s="281"/>
-      <c r="AG10" s="282"/>
-      <c r="AH10" s="282"/>
-      <c r="AI10" s="283"/>
-    </row>
-    <row r="11" spans="1:40" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="274"/>
-      <c r="B11" s="275"/>
-      <c r="C11" s="276"/>
-      <c r="D11" s="277"/>
-      <c r="E11" s="278"/>
-      <c r="F11" s="279"/>
-      <c r="G11" s="275"/>
-      <c r="H11" s="280"/>
-      <c r="I11" s="276"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="282"/>
-      <c r="L11" s="282"/>
-      <c r="M11" s="282"/>
-      <c r="N11" s="282"/>
-      <c r="O11" s="282"/>
-      <c r="P11" s="283"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="158"/>
-      <c r="T11" s="158"/>
-      <c r="U11" s="158"/>
-      <c r="V11" s="158"/>
-      <c r="W11" s="158"/>
-      <c r="X11" s="158"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="158"/>
-      <c r="AA11" s="158"/>
-      <c r="AB11" s="158"/>
-      <c r="AC11" s="158"/>
-      <c r="AD11" s="158"/>
-      <c r="AE11" s="159"/>
-      <c r="AF11" s="281"/>
-      <c r="AG11" s="282"/>
-      <c r="AH11" s="282"/>
-      <c r="AI11" s="283"/>
-    </row>
-    <row r="12" spans="1:40" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="274"/>
-      <c r="B12" s="275"/>
-      <c r="C12" s="276"/>
-      <c r="D12" s="277"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="279"/>
-      <c r="G12" s="275"/>
-      <c r="H12" s="280"/>
-      <c r="I12" s="276"/>
-      <c r="J12" s="281"/>
-      <c r="K12" s="282"/>
-      <c r="L12" s="282"/>
-      <c r="M12" s="282"/>
-      <c r="N12" s="282"/>
-      <c r="O12" s="282"/>
-      <c r="P12" s="283"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="158"/>
-      <c r="T12" s="158"/>
-      <c r="U12" s="158"/>
-      <c r="V12" s="158"/>
-      <c r="W12" s="158"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="158"/>
-      <c r="Z12" s="158"/>
-      <c r="AA12" s="158"/>
-      <c r="AB12" s="158"/>
-      <c r="AC12" s="158"/>
-      <c r="AD12" s="158"/>
-      <c r="AE12" s="159"/>
-      <c r="AF12" s="281"/>
-      <c r="AG12" s="282"/>
-      <c r="AH12" s="282"/>
-      <c r="AI12" s="283"/>
-    </row>
-    <row r="13" spans="1:40" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="274"/>
-      <c r="B13" s="275"/>
-      <c r="C13" s="276"/>
-      <c r="D13" s="277"/>
-      <c r="E13" s="278"/>
-      <c r="F13" s="279"/>
-      <c r="G13" s="275"/>
-      <c r="H13" s="280"/>
-      <c r="I13" s="276"/>
-      <c r="J13" s="281"/>
-      <c r="K13" s="282"/>
-      <c r="L13" s="282"/>
-      <c r="M13" s="282"/>
-      <c r="N13" s="282"/>
-      <c r="O13" s="282"/>
-      <c r="P13" s="283"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="158"/>
-      <c r="T13" s="158"/>
-      <c r="U13" s="158"/>
-      <c r="V13" s="158"/>
-      <c r="W13" s="158"/>
-      <c r="X13" s="158"/>
-      <c r="Y13" s="158"/>
-      <c r="Z13" s="158"/>
-      <c r="AA13" s="158"/>
-      <c r="AB13" s="158"/>
-      <c r="AC13" s="158"/>
-      <c r="AD13" s="158"/>
-      <c r="AE13" s="159"/>
-      <c r="AF13" s="281"/>
-      <c r="AG13" s="282"/>
-      <c r="AH13" s="282"/>
-      <c r="AI13" s="283"/>
-    </row>
-    <row r="14" spans="1:40" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="274"/>
-      <c r="B14" s="275"/>
-      <c r="C14" s="276"/>
-      <c r="D14" s="277"/>
-      <c r="E14" s="278"/>
-      <c r="F14" s="279"/>
-      <c r="G14" s="275"/>
-      <c r="H14" s="280"/>
-      <c r="I14" s="276"/>
-      <c r="J14" s="281"/>
-      <c r="K14" s="282"/>
-      <c r="L14" s="282"/>
-      <c r="M14" s="282"/>
-      <c r="N14" s="282"/>
-      <c r="O14" s="282"/>
-      <c r="P14" s="283"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="158"/>
-      <c r="T14" s="158"/>
-      <c r="U14" s="158"/>
-      <c r="V14" s="158"/>
-      <c r="W14" s="158"/>
-      <c r="X14" s="158"/>
-      <c r="Y14" s="158"/>
-      <c r="Z14" s="158"/>
-      <c r="AA14" s="158"/>
-      <c r="AB14" s="158"/>
-      <c r="AC14" s="158"/>
-      <c r="AD14" s="158"/>
-      <c r="AE14" s="159"/>
-      <c r="AF14" s="281"/>
-      <c r="AG14" s="282"/>
-      <c r="AH14" s="282"/>
-      <c r="AI14" s="283"/>
-    </row>
-    <row r="15" spans="1:40" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="274"/>
-      <c r="B15" s="275"/>
-      <c r="C15" s="276"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="279"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="280"/>
-      <c r="I15" s="276"/>
-      <c r="J15" s="281"/>
-      <c r="K15" s="282"/>
-      <c r="L15" s="282"/>
-      <c r="M15" s="282"/>
-      <c r="N15" s="282"/>
-      <c r="O15" s="282"/>
-      <c r="P15" s="283"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
-      <c r="S15" s="158"/>
-      <c r="T15" s="158"/>
-      <c r="U15" s="158"/>
-      <c r="V15" s="158"/>
-      <c r="W15" s="158"/>
-      <c r="X15" s="158"/>
-      <c r="Y15" s="158"/>
-      <c r="Z15" s="158"/>
-      <c r="AA15" s="158"/>
-      <c r="AB15" s="158"/>
-      <c r="AC15" s="158"/>
-      <c r="AD15" s="158"/>
-      <c r="AE15" s="159"/>
-      <c r="AF15" s="281"/>
-      <c r="AG15" s="282"/>
-      <c r="AH15" s="282"/>
-      <c r="AI15" s="283"/>
-    </row>
-    <row r="16" spans="1:40" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="274"/>
-      <c r="B16" s="275"/>
-      <c r="C16" s="276"/>
-      <c r="D16" s="277"/>
-      <c r="E16" s="278"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="275"/>
-      <c r="H16" s="280"/>
-      <c r="I16" s="276"/>
-      <c r="J16" s="281"/>
-      <c r="K16" s="282"/>
-      <c r="L16" s="282"/>
-      <c r="M16" s="282"/>
-      <c r="N16" s="282"/>
-      <c r="O16" s="282"/>
-      <c r="P16" s="283"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="158"/>
-      <c r="T16" s="158"/>
-      <c r="U16" s="158"/>
-      <c r="V16" s="158"/>
-      <c r="W16" s="158"/>
-      <c r="X16" s="158"/>
-      <c r="Y16" s="158"/>
-      <c r="Z16" s="158"/>
-      <c r="AA16" s="158"/>
-      <c r="AB16" s="158"/>
-      <c r="AC16" s="158"/>
-      <c r="AD16" s="158"/>
-      <c r="AE16" s="159"/>
-      <c r="AF16" s="281"/>
-      <c r="AG16" s="282"/>
-      <c r="AH16" s="282"/>
-      <c r="AI16" s="283"/>
-    </row>
-    <row r="17" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="274"/>
-      <c r="B17" s="275"/>
-      <c r="C17" s="276"/>
-      <c r="D17" s="277"/>
-      <c r="E17" s="278"/>
-      <c r="F17" s="279"/>
-      <c r="G17" s="275"/>
-      <c r="H17" s="280"/>
-      <c r="I17" s="276"/>
-      <c r="J17" s="281"/>
-      <c r="K17" s="282"/>
-      <c r="L17" s="282"/>
-      <c r="M17" s="282"/>
-      <c r="N17" s="282"/>
-      <c r="O17" s="282"/>
-      <c r="P17" s="283"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="158"/>
-      <c r="S17" s="158"/>
-      <c r="T17" s="158"/>
-      <c r="U17" s="158"/>
-      <c r="V17" s="158"/>
-      <c r="W17" s="158"/>
-      <c r="X17" s="158"/>
-      <c r="Y17" s="158"/>
-      <c r="Z17" s="158"/>
-      <c r="AA17" s="158"/>
-      <c r="AB17" s="158"/>
-      <c r="AC17" s="158"/>
-      <c r="AD17" s="158"/>
-      <c r="AE17" s="159"/>
-      <c r="AF17" s="281"/>
-      <c r="AG17" s="282"/>
-      <c r="AH17" s="282"/>
-      <c r="AI17" s="283"/>
-    </row>
-    <row r="18" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="274"/>
-      <c r="B18" s="275"/>
-      <c r="C18" s="276"/>
-      <c r="D18" s="277"/>
-      <c r="E18" s="278"/>
-      <c r="F18" s="279"/>
-      <c r="G18" s="275"/>
-      <c r="H18" s="280"/>
-      <c r="I18" s="276"/>
-      <c r="J18" s="281"/>
-      <c r="K18" s="282"/>
-      <c r="L18" s="282"/>
-      <c r="M18" s="282"/>
-      <c r="N18" s="282"/>
-      <c r="O18" s="282"/>
-      <c r="P18" s="283"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="158"/>
-      <c r="T18" s="158"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="159"/>
-      <c r="AF18" s="281"/>
-      <c r="AG18" s="282"/>
-      <c r="AH18" s="282"/>
-      <c r="AI18" s="283"/>
-    </row>
-    <row r="19" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="274"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="276"/>
-      <c r="D19" s="277"/>
-      <c r="E19" s="278"/>
-      <c r="F19" s="279"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="280"/>
-      <c r="I19" s="276"/>
-      <c r="J19" s="281"/>
-      <c r="K19" s="282"/>
-      <c r="L19" s="282"/>
-      <c r="M19" s="282"/>
-      <c r="N19" s="282"/>
-      <c r="O19" s="282"/>
-      <c r="P19" s="283"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="158"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="159"/>
-      <c r="AF19" s="281"/>
-      <c r="AG19" s="282"/>
-      <c r="AH19" s="282"/>
-      <c r="AI19" s="283"/>
-    </row>
-    <row r="20" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="274"/>
-      <c r="B20" s="275"/>
-      <c r="C20" s="276"/>
-      <c r="D20" s="277"/>
-      <c r="E20" s="278"/>
-      <c r="F20" s="279"/>
-      <c r="G20" s="275"/>
-      <c r="H20" s="280"/>
-      <c r="I20" s="276"/>
-      <c r="J20" s="281"/>
-      <c r="K20" s="282"/>
-      <c r="L20" s="282"/>
-      <c r="M20" s="282"/>
-      <c r="N20" s="282"/>
-      <c r="O20" s="282"/>
-      <c r="P20" s="283"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="158"/>
-      <c r="U20" s="158"/>
-      <c r="V20" s="158"/>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="158"/>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="158"/>
-      <c r="AC20" s="158"/>
-      <c r="AD20" s="158"/>
-      <c r="AE20" s="159"/>
-      <c r="AF20" s="281"/>
-      <c r="AG20" s="282"/>
-      <c r="AH20" s="282"/>
-      <c r="AI20" s="283"/>
-    </row>
-    <row r="21" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="274"/>
-      <c r="B21" s="275"/>
-      <c r="C21" s="276"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="278"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="275"/>
-      <c r="H21" s="280"/>
-      <c r="I21" s="276"/>
-      <c r="J21" s="281"/>
-      <c r="K21" s="282"/>
-      <c r="L21" s="282"/>
-      <c r="M21" s="282"/>
-      <c r="N21" s="282"/>
-      <c r="O21" s="282"/>
-      <c r="P21" s="283"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="158"/>
-      <c r="T21" s="158"/>
-      <c r="U21" s="158"/>
-      <c r="V21" s="158"/>
-      <c r="W21" s="158"/>
-      <c r="X21" s="158"/>
-      <c r="Y21" s="158"/>
-      <c r="Z21" s="158"/>
-      <c r="AA21" s="158"/>
-      <c r="AB21" s="158"/>
-      <c r="AC21" s="158"/>
-      <c r="AD21" s="158"/>
-      <c r="AE21" s="159"/>
-      <c r="AF21" s="281"/>
-      <c r="AG21" s="282"/>
-      <c r="AH21" s="282"/>
-      <c r="AI21" s="283"/>
-    </row>
-    <row r="22" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="274"/>
-      <c r="B22" s="275"/>
-      <c r="C22" s="276"/>
-      <c r="D22" s="277"/>
-      <c r="E22" s="278"/>
-      <c r="F22" s="279"/>
-      <c r="G22" s="275"/>
-      <c r="H22" s="280"/>
-      <c r="I22" s="276"/>
-      <c r="J22" s="281"/>
-      <c r="K22" s="282"/>
-      <c r="L22" s="282"/>
-      <c r="M22" s="282"/>
-      <c r="N22" s="282"/>
-      <c r="O22" s="282"/>
-      <c r="P22" s="283"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="158"/>
-      <c r="T22" s="158"/>
-      <c r="U22" s="158"/>
-      <c r="V22" s="158"/>
-      <c r="W22" s="158"/>
-      <c r="X22" s="158"/>
-      <c r="Y22" s="158"/>
-      <c r="Z22" s="158"/>
-      <c r="AA22" s="158"/>
-      <c r="AB22" s="158"/>
-      <c r="AC22" s="158"/>
-      <c r="AD22" s="158"/>
-      <c r="AE22" s="159"/>
-      <c r="AF22" s="281"/>
-      <c r="AG22" s="282"/>
-      <c r="AH22" s="282"/>
-      <c r="AI22" s="283"/>
-    </row>
-    <row r="23" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="274"/>
-      <c r="B23" s="275"/>
-      <c r="C23" s="276"/>
-      <c r="D23" s="277"/>
-      <c r="E23" s="278"/>
-      <c r="F23" s="279"/>
-      <c r="G23" s="275"/>
-      <c r="H23" s="280"/>
-      <c r="I23" s="276"/>
-      <c r="J23" s="281"/>
-      <c r="K23" s="282"/>
-      <c r="L23" s="282"/>
-      <c r="M23" s="282"/>
-      <c r="N23" s="282"/>
-      <c r="O23" s="282"/>
-      <c r="P23" s="283"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="158"/>
-      <c r="T23" s="158"/>
-      <c r="U23" s="158"/>
-      <c r="V23" s="158"/>
-      <c r="W23" s="158"/>
-      <c r="X23" s="158"/>
-      <c r="Y23" s="158"/>
-      <c r="Z23" s="158"/>
-      <c r="AA23" s="158"/>
-      <c r="AB23" s="158"/>
-      <c r="AC23" s="158"/>
-      <c r="AD23" s="158"/>
-      <c r="AE23" s="159"/>
-      <c r="AF23" s="281"/>
-      <c r="AG23" s="282"/>
-      <c r="AH23" s="282"/>
-      <c r="AI23" s="283"/>
-    </row>
-    <row r="24" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="274"/>
-      <c r="B24" s="275"/>
-      <c r="C24" s="276"/>
-      <c r="D24" s="277"/>
-      <c r="E24" s="278"/>
-      <c r="F24" s="279"/>
-      <c r="G24" s="275"/>
-      <c r="H24" s="280"/>
-      <c r="I24" s="276"/>
-      <c r="J24" s="281"/>
-      <c r="K24" s="282"/>
-      <c r="L24" s="282"/>
-      <c r="M24" s="282"/>
-      <c r="N24" s="282"/>
-      <c r="O24" s="282"/>
-      <c r="P24" s="283"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="158"/>
-      <c r="T24" s="158"/>
-      <c r="U24" s="158"/>
-      <c r="V24" s="158"/>
-      <c r="W24" s="158"/>
-      <c r="X24" s="158"/>
-      <c r="Y24" s="158"/>
-      <c r="Z24" s="158"/>
-      <c r="AA24" s="158"/>
-      <c r="AB24" s="158"/>
-      <c r="AC24" s="158"/>
-      <c r="AD24" s="158"/>
-      <c r="AE24" s="159"/>
-      <c r="AF24" s="281"/>
-      <c r="AG24" s="282"/>
-      <c r="AH24" s="282"/>
-      <c r="AI24" s="283"/>
-    </row>
-    <row r="25" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="274"/>
-      <c r="B25" s="275"/>
-      <c r="C25" s="276"/>
-      <c r="D25" s="277"/>
-      <c r="E25" s="278"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="275"/>
-      <c r="H25" s="280"/>
-      <c r="I25" s="276"/>
-      <c r="J25" s="281"/>
-      <c r="K25" s="282"/>
-      <c r="L25" s="282"/>
-      <c r="M25" s="282"/>
-      <c r="N25" s="282"/>
-      <c r="O25" s="282"/>
-      <c r="P25" s="283"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="158"/>
-      <c r="T25" s="158"/>
-      <c r="U25" s="158"/>
-      <c r="V25" s="158"/>
-      <c r="W25" s="158"/>
-      <c r="X25" s="158"/>
-      <c r="Y25" s="158"/>
-      <c r="Z25" s="158"/>
-      <c r="AA25" s="158"/>
-      <c r="AB25" s="158"/>
-      <c r="AC25" s="158"/>
-      <c r="AD25" s="158"/>
-      <c r="AE25" s="159"/>
-      <c r="AF25" s="281"/>
-      <c r="AG25" s="282"/>
-      <c r="AH25" s="282"/>
-      <c r="AI25" s="283"/>
-    </row>
-    <row r="26" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="274"/>
-      <c r="B26" s="275"/>
-      <c r="C26" s="276"/>
-      <c r="D26" s="277"/>
-      <c r="E26" s="278"/>
-      <c r="F26" s="279"/>
-      <c r="G26" s="275"/>
-      <c r="H26" s="280"/>
-      <c r="I26" s="276"/>
-      <c r="J26" s="281"/>
-      <c r="K26" s="282"/>
-      <c r="L26" s="282"/>
-      <c r="M26" s="282"/>
-      <c r="N26" s="282"/>
-      <c r="O26" s="282"/>
-      <c r="P26" s="283"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="158"/>
-      <c r="T26" s="158"/>
-      <c r="U26" s="158"/>
-      <c r="V26" s="158"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="158"/>
-      <c r="Z26" s="158"/>
-      <c r="AA26" s="158"/>
-      <c r="AB26" s="158"/>
-      <c r="AC26" s="158"/>
-      <c r="AD26" s="158"/>
-      <c r="AE26" s="159"/>
-      <c r="AF26" s="281"/>
-      <c r="AG26" s="282"/>
-      <c r="AH26" s="282"/>
-      <c r="AI26" s="283"/>
-    </row>
-    <row r="27" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="274"/>
-      <c r="B27" s="275"/>
-      <c r="C27" s="276"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="278"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="275"/>
-      <c r="H27" s="280"/>
-      <c r="I27" s="276"/>
-      <c r="J27" s="281"/>
-      <c r="K27" s="282"/>
-      <c r="L27" s="282"/>
-      <c r="M27" s="282"/>
-      <c r="N27" s="282"/>
-      <c r="O27" s="282"/>
-      <c r="P27" s="283"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="158"/>
-      <c r="T27" s="158"/>
-      <c r="U27" s="158"/>
-      <c r="V27" s="158"/>
-      <c r="W27" s="158"/>
-      <c r="X27" s="158"/>
-      <c r="Y27" s="158"/>
-      <c r="Z27" s="158"/>
-      <c r="AA27" s="158"/>
-      <c r="AB27" s="158"/>
-      <c r="AC27" s="158"/>
-      <c r="AD27" s="158"/>
-      <c r="AE27" s="159"/>
-      <c r="AF27" s="281"/>
-      <c r="AG27" s="282"/>
-      <c r="AH27" s="282"/>
-      <c r="AI27" s="283"/>
-    </row>
-    <row r="28" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="274"/>
-      <c r="B28" s="275"/>
-      <c r="C28" s="276"/>
-      <c r="D28" s="277"/>
-      <c r="E28" s="278"/>
-      <c r="F28" s="279"/>
-      <c r="G28" s="275"/>
-      <c r="H28" s="280"/>
-      <c r="I28" s="276"/>
-      <c r="J28" s="281"/>
-      <c r="K28" s="282"/>
-      <c r="L28" s="282"/>
-      <c r="M28" s="282"/>
-      <c r="N28" s="282"/>
-      <c r="O28" s="282"/>
-      <c r="P28" s="283"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="158"/>
-      <c r="T28" s="158"/>
-      <c r="U28" s="158"/>
-      <c r="V28" s="158"/>
-      <c r="W28" s="158"/>
-      <c r="X28" s="158"/>
-      <c r="Y28" s="158"/>
-      <c r="Z28" s="158"/>
-      <c r="AA28" s="158"/>
-      <c r="AB28" s="158"/>
-      <c r="AC28" s="158"/>
-      <c r="AD28" s="158"/>
-      <c r="AE28" s="159"/>
-      <c r="AF28" s="281"/>
-      <c r="AG28" s="282"/>
-      <c r="AH28" s="282"/>
-      <c r="AI28" s="283"/>
-    </row>
-    <row r="29" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="274"/>
-      <c r="B29" s="275"/>
-      <c r="C29" s="276"/>
-      <c r="D29" s="277"/>
-      <c r="E29" s="278"/>
-      <c r="F29" s="279"/>
-      <c r="G29" s="275"/>
-      <c r="H29" s="280"/>
-      <c r="I29" s="276"/>
-      <c r="J29" s="281"/>
-      <c r="K29" s="282"/>
-      <c r="L29" s="282"/>
-      <c r="M29" s="282"/>
-      <c r="N29" s="282"/>
-      <c r="O29" s="282"/>
-      <c r="P29" s="283"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="158"/>
-      <c r="T29" s="158"/>
-      <c r="U29" s="158"/>
-      <c r="V29" s="158"/>
-      <c r="W29" s="158"/>
-      <c r="X29" s="158"/>
-      <c r="Y29" s="158"/>
-      <c r="Z29" s="158"/>
-      <c r="AA29" s="158"/>
-      <c r="AB29" s="158"/>
-      <c r="AC29" s="158"/>
-      <c r="AD29" s="158"/>
-      <c r="AE29" s="159"/>
-      <c r="AF29" s="281"/>
-      <c r="AG29" s="282"/>
-      <c r="AH29" s="282"/>
-      <c r="AI29" s="283"/>
-    </row>
-    <row r="30" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="274"/>
-      <c r="B30" s="275"/>
-      <c r="C30" s="276"/>
-      <c r="D30" s="277"/>
-      <c r="E30" s="278"/>
-      <c r="F30" s="279"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="280"/>
-      <c r="I30" s="276"/>
-      <c r="J30" s="281"/>
-      <c r="K30" s="282"/>
-      <c r="L30" s="282"/>
-      <c r="M30" s="282"/>
-      <c r="N30" s="282"/>
-      <c r="O30" s="282"/>
-      <c r="P30" s="283"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="158"/>
-      <c r="T30" s="158"/>
-      <c r="U30" s="158"/>
-      <c r="V30" s="158"/>
-      <c r="W30" s="158"/>
-      <c r="X30" s="158"/>
-      <c r="Y30" s="158"/>
-      <c r="Z30" s="158"/>
-      <c r="AA30" s="158"/>
-      <c r="AB30" s="158"/>
-      <c r="AC30" s="158"/>
-      <c r="AD30" s="158"/>
-      <c r="AE30" s="159"/>
-      <c r="AF30" s="281"/>
-      <c r="AG30" s="282"/>
-      <c r="AH30" s="282"/>
-      <c r="AI30" s="283"/>
-    </row>
-    <row r="31" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="274"/>
-      <c r="B31" s="275"/>
-      <c r="C31" s="276"/>
-      <c r="D31" s="277"/>
-      <c r="E31" s="278"/>
-      <c r="F31" s="279"/>
-      <c r="G31" s="275"/>
-      <c r="H31" s="280"/>
-      <c r="I31" s="276"/>
-      <c r="J31" s="281"/>
-      <c r="K31" s="282"/>
-      <c r="L31" s="282"/>
-      <c r="M31" s="282"/>
-      <c r="N31" s="282"/>
-      <c r="O31" s="282"/>
-      <c r="P31" s="283"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="158"/>
-      <c r="T31" s="158"/>
-      <c r="U31" s="158"/>
-      <c r="V31" s="158"/>
-      <c r="W31" s="158"/>
-      <c r="X31" s="158"/>
-      <c r="Y31" s="158"/>
-      <c r="Z31" s="158"/>
-      <c r="AA31" s="158"/>
-      <c r="AB31" s="158"/>
-      <c r="AC31" s="158"/>
-      <c r="AD31" s="158"/>
-      <c r="AE31" s="159"/>
-      <c r="AF31" s="281"/>
-      <c r="AG31" s="282"/>
-      <c r="AH31" s="282"/>
-      <c r="AI31" s="283"/>
-    </row>
-    <row r="32" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="274"/>
-      <c r="B32" s="275"/>
-      <c r="C32" s="276"/>
-      <c r="D32" s="277"/>
-      <c r="E32" s="278"/>
-      <c r="F32" s="279"/>
-      <c r="G32" s="275"/>
-      <c r="H32" s="280"/>
-      <c r="I32" s="276"/>
-      <c r="J32" s="281"/>
-      <c r="K32" s="284"/>
-      <c r="L32" s="282"/>
-      <c r="M32" s="282"/>
-      <c r="N32" s="282"/>
-      <c r="O32" s="282"/>
-      <c r="P32" s="283"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="158"/>
-      <c r="T32" s="158"/>
-      <c r="U32" s="158"/>
-      <c r="V32" s="158"/>
-      <c r="W32" s="158"/>
-      <c r="X32" s="158"/>
-      <c r="Y32" s="158"/>
-      <c r="Z32" s="158"/>
-      <c r="AA32" s="158"/>
-      <c r="AB32" s="158"/>
-      <c r="AC32" s="158"/>
-      <c r="AD32" s="158"/>
-      <c r="AE32" s="159"/>
-      <c r="AF32" s="281"/>
-      <c r="AG32" s="282"/>
-      <c r="AH32" s="282"/>
-      <c r="AI32" s="283"/>
-    </row>
-    <row r="33" spans="1:35" s="263" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="274"/>
-      <c r="B33" s="275"/>
-      <c r="C33" s="276"/>
-      <c r="D33" s="277"/>
-      <c r="E33" s="278"/>
-      <c r="F33" s="279"/>
-      <c r="G33" s="275"/>
-      <c r="H33" s="280"/>
-      <c r="I33" s="276"/>
-      <c r="J33" s="281"/>
-      <c r="K33" s="282"/>
-      <c r="L33" s="282"/>
-      <c r="M33" s="282"/>
-      <c r="N33" s="282"/>
-      <c r="O33" s="282"/>
-      <c r="P33" s="283"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="158"/>
-      <c r="T33" s="158"/>
-      <c r="U33" s="158"/>
-      <c r="V33" s="158"/>
-      <c r="W33" s="158"/>
-      <c r="X33" s="158"/>
-      <c r="Y33" s="158"/>
-      <c r="Z33" s="158"/>
-      <c r="AA33" s="158"/>
-      <c r="AB33" s="158"/>
-      <c r="AC33" s="158"/>
-      <c r="AD33" s="158"/>
-      <c r="AE33" s="159"/>
-      <c r="AF33" s="281"/>
-      <c r="AG33" s="282"/>
-      <c r="AH33" s="282"/>
-      <c r="AI33" s="283"/>
+      <c r="AG8" s="186"/>
+      <c r="AH8" s="186"/>
+      <c r="AI8" s="187"/>
+    </row>
+    <row r="9" spans="1:40" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="124"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="168"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="170"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="171"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="172"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="173"/>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="175"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="175"/>
+      <c r="U9" s="175"/>
+      <c r="V9" s="175"/>
+      <c r="W9" s="175"/>
+      <c r="X9" s="175"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="175"/>
+      <c r="AA9" s="175"/>
+      <c r="AB9" s="175"/>
+      <c r="AC9" s="175"/>
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="176"/>
+      <c r="AF9" s="171"/>
+      <c r="AG9" s="172"/>
+      <c r="AH9" s="172"/>
+      <c r="AI9" s="173"/>
+    </row>
+    <row r="10" spans="1:40" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="124"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
+      <c r="M10" s="172"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="173"/>
+      <c r="Q10" s="174"/>
+      <c r="R10" s="175"/>
+      <c r="S10" s="175"/>
+      <c r="T10" s="175"/>
+      <c r="U10" s="175"/>
+      <c r="V10" s="175"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="175"/>
+      <c r="Z10" s="175"/>
+      <c r="AA10" s="175"/>
+      <c r="AB10" s="175"/>
+      <c r="AC10" s="175"/>
+      <c r="AD10" s="175"/>
+      <c r="AE10" s="176"/>
+      <c r="AF10" s="171"/>
+      <c r="AG10" s="172"/>
+      <c r="AH10" s="172"/>
+      <c r="AI10" s="173"/>
+    </row>
+    <row r="11" spans="1:40" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="124"/>
+      <c r="B11" s="165"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="168"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="171"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="172"/>
+      <c r="M11" s="172"/>
+      <c r="N11" s="172"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="173"/>
+      <c r="Q11" s="174"/>
+      <c r="R11" s="175"/>
+      <c r="S11" s="175"/>
+      <c r="T11" s="175"/>
+      <c r="U11" s="175"/>
+      <c r="V11" s="175"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="175"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="175"/>
+      <c r="AB11" s="175"/>
+      <c r="AC11" s="175"/>
+      <c r="AD11" s="175"/>
+      <c r="AE11" s="176"/>
+      <c r="AF11" s="171"/>
+      <c r="AG11" s="172"/>
+      <c r="AH11" s="172"/>
+      <c r="AI11" s="173"/>
+    </row>
+    <row r="12" spans="1:40" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="124"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="168"/>
+      <c r="F12" s="169"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="170"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="172"/>
+      <c r="N12" s="172"/>
+      <c r="O12" s="172"/>
+      <c r="P12" s="173"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="175"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="175"/>
+      <c r="U12" s="175"/>
+      <c r="V12" s="175"/>
+      <c r="W12" s="175"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="175"/>
+      <c r="Z12" s="175"/>
+      <c r="AA12" s="175"/>
+      <c r="AB12" s="175"/>
+      <c r="AC12" s="175"/>
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="176"/>
+      <c r="AF12" s="171"/>
+      <c r="AG12" s="172"/>
+      <c r="AH12" s="172"/>
+      <c r="AI12" s="173"/>
+    </row>
+    <row r="13" spans="1:40" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="124"/>
+      <c r="B13" s="165"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="172"/>
+      <c r="N13" s="172"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="173"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="175"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="175"/>
+      <c r="U13" s="175"/>
+      <c r="V13" s="175"/>
+      <c r="W13" s="175"/>
+      <c r="X13" s="175"/>
+      <c r="Y13" s="175"/>
+      <c r="Z13" s="175"/>
+      <c r="AA13" s="175"/>
+      <c r="AB13" s="175"/>
+      <c r="AC13" s="175"/>
+      <c r="AD13" s="175"/>
+      <c r="AE13" s="176"/>
+      <c r="AF13" s="171"/>
+      <c r="AG13" s="172"/>
+      <c r="AH13" s="172"/>
+      <c r="AI13" s="173"/>
+    </row>
+    <row r="14" spans="1:40" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="124"/>
+      <c r="B14" s="165"/>
+      <c r="C14" s="166"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="168"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="170"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="172"/>
+      <c r="N14" s="172"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="173"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="175"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="175"/>
+      <c r="U14" s="175"/>
+      <c r="V14" s="175"/>
+      <c r="W14" s="175"/>
+      <c r="X14" s="175"/>
+      <c r="Y14" s="175"/>
+      <c r="Z14" s="175"/>
+      <c r="AA14" s="175"/>
+      <c r="AB14" s="175"/>
+      <c r="AC14" s="175"/>
+      <c r="AD14" s="175"/>
+      <c r="AE14" s="176"/>
+      <c r="AF14" s="171"/>
+      <c r="AG14" s="172"/>
+      <c r="AH14" s="172"/>
+      <c r="AI14" s="173"/>
+    </row>
+    <row r="15" spans="1:40" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="124"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="168"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="170"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="172"/>
+      <c r="N15" s="172"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="173"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="175"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="175"/>
+      <c r="U15" s="175"/>
+      <c r="V15" s="175"/>
+      <c r="W15" s="175"/>
+      <c r="X15" s="175"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="175"/>
+      <c r="AA15" s="175"/>
+      <c r="AB15" s="175"/>
+      <c r="AC15" s="175"/>
+      <c r="AD15" s="175"/>
+      <c r="AE15" s="176"/>
+      <c r="AF15" s="171"/>
+      <c r="AG15" s="172"/>
+      <c r="AH15" s="172"/>
+      <c r="AI15" s="173"/>
+    </row>
+    <row r="16" spans="1:40" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="124"/>
+      <c r="B16" s="165"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="168"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="170"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="172"/>
+      <c r="N16" s="172"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="173"/>
+      <c r="Q16" s="174"/>
+      <c r="R16" s="175"/>
+      <c r="S16" s="175"/>
+      <c r="T16" s="175"/>
+      <c r="U16" s="175"/>
+      <c r="V16" s="175"/>
+      <c r="W16" s="175"/>
+      <c r="X16" s="175"/>
+      <c r="Y16" s="175"/>
+      <c r="Z16" s="175"/>
+      <c r="AA16" s="175"/>
+      <c r="AB16" s="175"/>
+      <c r="AC16" s="175"/>
+      <c r="AD16" s="175"/>
+      <c r="AE16" s="176"/>
+      <c r="AF16" s="171"/>
+      <c r="AG16" s="172"/>
+      <c r="AH16" s="172"/>
+      <c r="AI16" s="173"/>
+    </row>
+    <row r="17" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="124"/>
+      <c r="B17" s="165"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="172"/>
+      <c r="N17" s="172"/>
+      <c r="O17" s="172"/>
+      <c r="P17" s="173"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="175"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="175"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="175"/>
+      <c r="W17" s="175"/>
+      <c r="X17" s="175"/>
+      <c r="Y17" s="175"/>
+      <c r="Z17" s="175"/>
+      <c r="AA17" s="175"/>
+      <c r="AB17" s="175"/>
+      <c r="AC17" s="175"/>
+      <c r="AD17" s="175"/>
+      <c r="AE17" s="176"/>
+      <c r="AF17" s="171"/>
+      <c r="AG17" s="172"/>
+      <c r="AH17" s="172"/>
+      <c r="AI17" s="173"/>
+    </row>
+    <row r="18" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="124"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="168"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="170"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="172"/>
+      <c r="N18" s="172"/>
+      <c r="O18" s="172"/>
+      <c r="P18" s="173"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="175"/>
+      <c r="U18" s="175"/>
+      <c r="V18" s="175"/>
+      <c r="W18" s="175"/>
+      <c r="X18" s="175"/>
+      <c r="Y18" s="175"/>
+      <c r="Z18" s="175"/>
+      <c r="AA18" s="175"/>
+      <c r="AB18" s="175"/>
+      <c r="AC18" s="175"/>
+      <c r="AD18" s="175"/>
+      <c r="AE18" s="176"/>
+      <c r="AF18" s="171"/>
+      <c r="AG18" s="172"/>
+      <c r="AH18" s="172"/>
+      <c r="AI18" s="173"/>
+    </row>
+    <row r="19" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="124"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="166"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="169"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="170"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="172"/>
+      <c r="N19" s="172"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="173"/>
+      <c r="Q19" s="174"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="175"/>
+      <c r="T19" s="175"/>
+      <c r="U19" s="175"/>
+      <c r="V19" s="175"/>
+      <c r="W19" s="175"/>
+      <c r="X19" s="175"/>
+      <c r="Y19" s="175"/>
+      <c r="Z19" s="175"/>
+      <c r="AA19" s="175"/>
+      <c r="AB19" s="175"/>
+      <c r="AC19" s="175"/>
+      <c r="AD19" s="175"/>
+      <c r="AE19" s="176"/>
+      <c r="AF19" s="171"/>
+      <c r="AG19" s="172"/>
+      <c r="AH19" s="172"/>
+      <c r="AI19" s="173"/>
+    </row>
+    <row r="20" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="124"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="166"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="169"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="172"/>
+      <c r="N20" s="172"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="174"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="175"/>
+      <c r="U20" s="175"/>
+      <c r="V20" s="175"/>
+      <c r="W20" s="175"/>
+      <c r="X20" s="175"/>
+      <c r="Y20" s="175"/>
+      <c r="Z20" s="175"/>
+      <c r="AA20" s="175"/>
+      <c r="AB20" s="175"/>
+      <c r="AC20" s="175"/>
+      <c r="AD20" s="175"/>
+      <c r="AE20" s="176"/>
+      <c r="AF20" s="171"/>
+      <c r="AG20" s="172"/>
+      <c r="AH20" s="172"/>
+      <c r="AI20" s="173"/>
+    </row>
+    <row r="21" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="124"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="168"/>
+      <c r="F21" s="169"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="172"/>
+      <c r="N21" s="172"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="173"/>
+      <c r="Q21" s="174"/>
+      <c r="R21" s="175"/>
+      <c r="S21" s="175"/>
+      <c r="T21" s="175"/>
+      <c r="U21" s="175"/>
+      <c r="V21" s="175"/>
+      <c r="W21" s="175"/>
+      <c r="X21" s="175"/>
+      <c r="Y21" s="175"/>
+      <c r="Z21" s="175"/>
+      <c r="AA21" s="175"/>
+      <c r="AB21" s="175"/>
+      <c r="AC21" s="175"/>
+      <c r="AD21" s="175"/>
+      <c r="AE21" s="176"/>
+      <c r="AF21" s="171"/>
+      <c r="AG21" s="172"/>
+      <c r="AH21" s="172"/>
+      <c r="AI21" s="173"/>
+    </row>
+    <row r="22" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="124"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="166"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="168"/>
+      <c r="F22" s="169"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="170"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="172"/>
+      <c r="N22" s="172"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="173"/>
+      <c r="Q22" s="174"/>
+      <c r="R22" s="175"/>
+      <c r="S22" s="175"/>
+      <c r="T22" s="175"/>
+      <c r="U22" s="175"/>
+      <c r="V22" s="175"/>
+      <c r="W22" s="175"/>
+      <c r="X22" s="175"/>
+      <c r="Y22" s="175"/>
+      <c r="Z22" s="175"/>
+      <c r="AA22" s="175"/>
+      <c r="AB22" s="175"/>
+      <c r="AC22" s="175"/>
+      <c r="AD22" s="175"/>
+      <c r="AE22" s="176"/>
+      <c r="AF22" s="171"/>
+      <c r="AG22" s="172"/>
+      <c r="AH22" s="172"/>
+      <c r="AI22" s="173"/>
+    </row>
+    <row r="23" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="124"/>
+      <c r="B23" s="165"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="169"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="172"/>
+      <c r="N23" s="172"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="173"/>
+      <c r="Q23" s="174"/>
+      <c r="R23" s="175"/>
+      <c r="S23" s="175"/>
+      <c r="T23" s="175"/>
+      <c r="U23" s="175"/>
+      <c r="V23" s="175"/>
+      <c r="W23" s="175"/>
+      <c r="X23" s="175"/>
+      <c r="Y23" s="175"/>
+      <c r="Z23" s="175"/>
+      <c r="AA23" s="175"/>
+      <c r="AB23" s="175"/>
+      <c r="AC23" s="175"/>
+      <c r="AD23" s="175"/>
+      <c r="AE23" s="176"/>
+      <c r="AF23" s="171"/>
+      <c r="AG23" s="172"/>
+      <c r="AH23" s="172"/>
+      <c r="AI23" s="173"/>
+    </row>
+    <row r="24" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="124"/>
+      <c r="B24" s="165"/>
+      <c r="C24" s="166"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="168"/>
+      <c r="F24" s="169"/>
+      <c r="G24" s="165"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="172"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="173"/>
+      <c r="Q24" s="174"/>
+      <c r="R24" s="175"/>
+      <c r="S24" s="175"/>
+      <c r="T24" s="175"/>
+      <c r="U24" s="175"/>
+      <c r="V24" s="175"/>
+      <c r="W24" s="175"/>
+      <c r="X24" s="175"/>
+      <c r="Y24" s="175"/>
+      <c r="Z24" s="175"/>
+      <c r="AA24" s="175"/>
+      <c r="AB24" s="175"/>
+      <c r="AC24" s="175"/>
+      <c r="AD24" s="175"/>
+      <c r="AE24" s="176"/>
+      <c r="AF24" s="171"/>
+      <c r="AG24" s="172"/>
+      <c r="AH24" s="172"/>
+      <c r="AI24" s="173"/>
+    </row>
+    <row r="25" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="124"/>
+      <c r="B25" s="165"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="165"/>
+      <c r="H25" s="170"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="172"/>
+      <c r="N25" s="172"/>
+      <c r="O25" s="172"/>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="174"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
+      <c r="T25" s="175"/>
+      <c r="U25" s="175"/>
+      <c r="V25" s="175"/>
+      <c r="W25" s="175"/>
+      <c r="X25" s="175"/>
+      <c r="Y25" s="175"/>
+      <c r="Z25" s="175"/>
+      <c r="AA25" s="175"/>
+      <c r="AB25" s="175"/>
+      <c r="AC25" s="175"/>
+      <c r="AD25" s="175"/>
+      <c r="AE25" s="176"/>
+      <c r="AF25" s="171"/>
+      <c r="AG25" s="172"/>
+      <c r="AH25" s="172"/>
+      <c r="AI25" s="173"/>
+    </row>
+    <row r="26" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="124"/>
+      <c r="B26" s="165"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="168"/>
+      <c r="F26" s="169"/>
+      <c r="G26" s="165"/>
+      <c r="H26" s="170"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="173"/>
+      <c r="Q26" s="174"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
+      <c r="U26" s="175"/>
+      <c r="V26" s="175"/>
+      <c r="W26" s="175"/>
+      <c r="X26" s="175"/>
+      <c r="Y26" s="175"/>
+      <c r="Z26" s="175"/>
+      <c r="AA26" s="175"/>
+      <c r="AB26" s="175"/>
+      <c r="AC26" s="175"/>
+      <c r="AD26" s="175"/>
+      <c r="AE26" s="176"/>
+      <c r="AF26" s="171"/>
+      <c r="AG26" s="172"/>
+      <c r="AH26" s="172"/>
+      <c r="AI26" s="173"/>
+    </row>
+    <row r="27" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="124"/>
+      <c r="B27" s="165"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="168"/>
+      <c r="F27" s="169"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="170"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="172"/>
+      <c r="M27" s="172"/>
+      <c r="N27" s="172"/>
+      <c r="O27" s="172"/>
+      <c r="P27" s="173"/>
+      <c r="Q27" s="174"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="175"/>
+      <c r="V27" s="175"/>
+      <c r="W27" s="175"/>
+      <c r="X27" s="175"/>
+      <c r="Y27" s="175"/>
+      <c r="Z27" s="175"/>
+      <c r="AA27" s="175"/>
+      <c r="AB27" s="175"/>
+      <c r="AC27" s="175"/>
+      <c r="AD27" s="175"/>
+      <c r="AE27" s="176"/>
+      <c r="AF27" s="171"/>
+      <c r="AG27" s="172"/>
+      <c r="AH27" s="172"/>
+      <c r="AI27" s="173"/>
+    </row>
+    <row r="28" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="124"/>
+      <c r="B28" s="165"/>
+      <c r="C28" s="166"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="169"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="170"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="172"/>
+      <c r="N28" s="172"/>
+      <c r="O28" s="172"/>
+      <c r="P28" s="173"/>
+      <c r="Q28" s="174"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
+      <c r="W28" s="175"/>
+      <c r="X28" s="175"/>
+      <c r="Y28" s="175"/>
+      <c r="Z28" s="175"/>
+      <c r="AA28" s="175"/>
+      <c r="AB28" s="175"/>
+      <c r="AC28" s="175"/>
+      <c r="AD28" s="175"/>
+      <c r="AE28" s="176"/>
+      <c r="AF28" s="171"/>
+      <c r="AG28" s="172"/>
+      <c r="AH28" s="172"/>
+      <c r="AI28" s="173"/>
+    </row>
+    <row r="29" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="124"/>
+      <c r="B29" s="165"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="169"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="170"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="172"/>
+      <c r="N29" s="172"/>
+      <c r="O29" s="172"/>
+      <c r="P29" s="173"/>
+      <c r="Q29" s="174"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="175"/>
+      <c r="W29" s="175"/>
+      <c r="X29" s="175"/>
+      <c r="Y29" s="175"/>
+      <c r="Z29" s="175"/>
+      <c r="AA29" s="175"/>
+      <c r="AB29" s="175"/>
+      <c r="AC29" s="175"/>
+      <c r="AD29" s="175"/>
+      <c r="AE29" s="176"/>
+      <c r="AF29" s="171"/>
+      <c r="AG29" s="172"/>
+      <c r="AH29" s="172"/>
+      <c r="AI29" s="173"/>
+    </row>
+    <row r="30" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="124"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="166"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="170"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="172"/>
+      <c r="L30" s="172"/>
+      <c r="M30" s="172"/>
+      <c r="N30" s="172"/>
+      <c r="O30" s="172"/>
+      <c r="P30" s="173"/>
+      <c r="Q30" s="174"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="175"/>
+      <c r="V30" s="175"/>
+      <c r="W30" s="175"/>
+      <c r="X30" s="175"/>
+      <c r="Y30" s="175"/>
+      <c r="Z30" s="175"/>
+      <c r="AA30" s="175"/>
+      <c r="AB30" s="175"/>
+      <c r="AC30" s="175"/>
+      <c r="AD30" s="175"/>
+      <c r="AE30" s="176"/>
+      <c r="AF30" s="171"/>
+      <c r="AG30" s="172"/>
+      <c r="AH30" s="172"/>
+      <c r="AI30" s="173"/>
+    </row>
+    <row r="31" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="124"/>
+      <c r="B31" s="165"/>
+      <c r="C31" s="166"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="169"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="170"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="172"/>
+      <c r="L31" s="172"/>
+      <c r="M31" s="172"/>
+      <c r="N31" s="172"/>
+      <c r="O31" s="172"/>
+      <c r="P31" s="173"/>
+      <c r="Q31" s="174"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="175"/>
+      <c r="U31" s="175"/>
+      <c r="V31" s="175"/>
+      <c r="W31" s="175"/>
+      <c r="X31" s="175"/>
+      <c r="Y31" s="175"/>
+      <c r="Z31" s="175"/>
+      <c r="AA31" s="175"/>
+      <c r="AB31" s="175"/>
+      <c r="AC31" s="175"/>
+      <c r="AD31" s="175"/>
+      <c r="AE31" s="176"/>
+      <c r="AF31" s="171"/>
+      <c r="AG31" s="172"/>
+      <c r="AH31" s="172"/>
+      <c r="AI31" s="173"/>
+    </row>
+    <row r="32" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="124"/>
+      <c r="B32" s="165"/>
+      <c r="C32" s="166"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="170"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="172"/>
+      <c r="M32" s="172"/>
+      <c r="N32" s="172"/>
+      <c r="O32" s="172"/>
+      <c r="P32" s="173"/>
+      <c r="Q32" s="174"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="175"/>
+      <c r="U32" s="175"/>
+      <c r="V32" s="175"/>
+      <c r="W32" s="175"/>
+      <c r="X32" s="175"/>
+      <c r="Y32" s="175"/>
+      <c r="Z32" s="175"/>
+      <c r="AA32" s="175"/>
+      <c r="AB32" s="175"/>
+      <c r="AC32" s="175"/>
+      <c r="AD32" s="175"/>
+      <c r="AE32" s="176"/>
+      <c r="AF32" s="171"/>
+      <c r="AG32" s="172"/>
+      <c r="AH32" s="172"/>
+      <c r="AI32" s="173"/>
+    </row>
+    <row r="33" spans="1:35" s="122" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="124"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="166"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="169"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="170"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="172"/>
+      <c r="M33" s="172"/>
+      <c r="N33" s="172"/>
+      <c r="O33" s="172"/>
+      <c r="P33" s="173"/>
+      <c r="Q33" s="174"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="175"/>
+      <c r="V33" s="175"/>
+      <c r="W33" s="175"/>
+      <c r="X33" s="175"/>
+      <c r="Y33" s="175"/>
+      <c r="Z33" s="175"/>
+      <c r="AA33" s="175"/>
+      <c r="AB33" s="175"/>
+      <c r="AC33" s="175"/>
+      <c r="AD33" s="175"/>
+      <c r="AE33" s="176"/>
+      <c r="AF33" s="171"/>
+      <c r="AG33" s="172"/>
+      <c r="AH33" s="172"/>
+      <c r="AI33" s="173"/>
     </row>
     <row r="34" spans="1:35" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="K34" s="285"/>
+      <c r="K34" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -7352,162 +7602,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -7524,7 +7618,7 @@
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7663,163 +7757,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="str">
+      <c r="A1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="138" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="124" t="str">
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="223" t="str">
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="156" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design Document(Web Services)</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="121" t="str">
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="226" t="str">
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="127" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="115">
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="204">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="117"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="206"/>
     </row>
     <row r="2" spans="1:35" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="str">
+      <c r="A2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="138" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="233"/>
-      <c r="U2" s="233"/>
-      <c r="V2" s="233"/>
-      <c r="W2" s="233"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="233"/>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="121" t="str">
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="226" t="str">
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="127" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="115" t="str">
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="204" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="117"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
     </row>
     <row r="3" spans="1:35" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="str">
+      <c r="A3" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="138" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="241"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
-      <c r="W3" s="242"/>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="226" t="str">
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="127" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="115" t="str">
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="204" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="117"/>
+      <c r="AH3" s="205"/>
+      <c r="AI3" s="206"/>
     </row>
     <row r="4" spans="1:35" s="24" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="22"/>
@@ -7876,7 +7970,7 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="25" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
@@ -7937,7 +8031,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="26"/>
       <c r="B7" s="27" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="28"/>
@@ -7977,7 +8071,7 @@
       <c r="A8" s="26"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
@@ -8016,7 +8110,7 @@
       <c r="A9" s="26"/>
       <c r="B9" s="28"/>
       <c r="C9" s="27" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -8091,7 +8185,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
       <c r="B11" s="37" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="26"/>
@@ -9286,14 +9380,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9303,6 +9389,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -9330,163 +9424,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="str">
+      <c r="A1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="138" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="124" t="str">
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="223" t="str">
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="156" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design Document(Web Services)</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="121" t="str">
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="226" t="str">
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="127" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="115">
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="204">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="117"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="206"/>
     </row>
     <row r="2" spans="1:38" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="str">
+      <c r="A2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="138" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="233"/>
-      <c r="U2" s="233"/>
-      <c r="V2" s="233"/>
-      <c r="W2" s="233"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="233"/>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="121" t="str">
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="226" t="str">
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="127" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="115" t="str">
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="204" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="117"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
     </row>
     <row r="3" spans="1:38" s="65" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="str">
+      <c r="A3" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="138" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="241"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
-      <c r="W3" s="242"/>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="226" t="str">
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="127" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="115" t="str">
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="204" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="117"/>
+      <c r="AH3" s="205"/>
+      <c r="AI3" s="206"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="66"/>
@@ -9528,7 +9622,7 @@
     <row r="5" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="66"/>
       <c r="B5" s="67" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
@@ -9568,7 +9662,7 @@
       <c r="A6" s="66"/>
       <c r="B6" s="66"/>
       <c r="C6" s="67" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D6" s="66"/>
       <c r="E6" s="66"/>
@@ -9642,92 +9736,92 @@
       <c r="A8" s="66"/>
       <c r="B8" s="66"/>
       <c r="C8" s="66"/>
-      <c r="D8" s="135" t="s">
-        <v>87</v>
-      </c>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="137"/>
-      <c r="H8" s="142" t="s">
+      <c r="D8" s="209" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="210"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="142"/>
-      <c r="J8" s="142"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="142"/>
-      <c r="M8" s="142"/>
-      <c r="N8" s="142"/>
-      <c r="O8" s="142"/>
-      <c r="P8" s="142"/>
-      <c r="Q8" s="142"/>
-      <c r="R8" s="142"/>
-      <c r="S8" s="142"/>
-      <c r="T8" s="142"/>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="142"/>
-      <c r="X8" s="142"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="142"/>
-      <c r="AA8" s="142"/>
-      <c r="AB8" s="142"/>
-      <c r="AC8" s="142"/>
-      <c r="AD8" s="142"/>
-      <c r="AE8" s="142"/>
-      <c r="AF8" s="142"/>
-      <c r="AG8" s="142"/>
-      <c r="AH8" s="142"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="208"/>
+      <c r="N8" s="208"/>
+      <c r="O8" s="208"/>
+      <c r="P8" s="208"/>
+      <c r="Q8" s="208"/>
+      <c r="R8" s="208"/>
+      <c r="S8" s="208"/>
+      <c r="T8" s="208"/>
+      <c r="U8" s="208"/>
+      <c r="V8" s="208"/>
+      <c r="W8" s="208"/>
+      <c r="X8" s="208"/>
+      <c r="Y8" s="208"/>
+      <c r="Z8" s="208"/>
+      <c r="AA8" s="208"/>
+      <c r="AB8" s="208"/>
+      <c r="AC8" s="208"/>
+      <c r="AD8" s="208"/>
+      <c r="AE8" s="208"/>
+      <c r="AF8" s="208"/>
+      <c r="AG8" s="208"/>
+      <c r="AH8" s="208"/>
     </row>
     <row r="9" spans="1:38" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="66"/>
       <c r="B9" s="66"/>
       <c r="C9" s="66"/>
-      <c r="D9" s="135" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136"/>
-      <c r="G9" s="137"/>
-      <c r="H9" s="141" t="s">
+      <c r="D9" s="209" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="141"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="141"/>
-      <c r="Q9" s="141"/>
-      <c r="R9" s="141"/>
-      <c r="S9" s="141"/>
-      <c r="T9" s="141"/>
-      <c r="U9" s="141"/>
-      <c r="V9" s="141"/>
-      <c r="W9" s="141"/>
-      <c r="X9" s="141"/>
-      <c r="Y9" s="141"/>
-      <c r="Z9" s="141"/>
-      <c r="AA9" s="141"/>
-      <c r="AB9" s="141"/>
-      <c r="AC9" s="141"/>
-      <c r="AD9" s="141"/>
-      <c r="AE9" s="141"/>
-      <c r="AF9" s="141"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="207"/>
+      <c r="Q9" s="207"/>
+      <c r="R9" s="207"/>
+      <c r="S9" s="207"/>
+      <c r="T9" s="207"/>
+      <c r="U9" s="207"/>
+      <c r="V9" s="207"/>
+      <c r="W9" s="207"/>
+      <c r="X9" s="207"/>
+      <c r="Y9" s="207"/>
+      <c r="Z9" s="207"/>
+      <c r="AA9" s="207"/>
+      <c r="AB9" s="207"/>
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="207"/>
+      <c r="AE9" s="207"/>
+      <c r="AF9" s="207"/>
+      <c r="AG9" s="207"/>
+      <c r="AH9" s="207"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="66"/>
       <c r="B10" s="66"/>
       <c r="C10" s="66"/>
-      <c r="D10" s="132" t="s">
-        <v>89</v>
-      </c>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="134"/>
+      <c r="D10" s="212" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="214"/>
       <c r="H10" s="69" t="s">
         <v>10</v>
       </c>
@@ -9762,172 +9856,172 @@
       <c r="A11" s="66"/>
       <c r="B11" s="66"/>
       <c r="C11" s="66"/>
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="209" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="136"/>
-      <c r="F11" s="136"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="142" t="s">
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="142"/>
-      <c r="J11" s="142"/>
-      <c r="K11" s="142"/>
-      <c r="L11" s="142"/>
-      <c r="M11" s="142"/>
-      <c r="N11" s="142"/>
-      <c r="O11" s="142"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="142"/>
-      <c r="R11" s="142"/>
-      <c r="S11" s="142"/>
-      <c r="T11" s="142"/>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="142"/>
-      <c r="X11" s="142"/>
-      <c r="Y11" s="142"/>
-      <c r="Z11" s="142"/>
-      <c r="AA11" s="142"/>
-      <c r="AB11" s="142"/>
-      <c r="AC11" s="142"/>
-      <c r="AD11" s="142"/>
-      <c r="AE11" s="142"/>
-      <c r="AF11" s="142"/>
-      <c r="AG11" s="142"/>
-      <c r="AH11" s="142"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="208"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="208"/>
+      <c r="N11" s="208"/>
+      <c r="O11" s="208"/>
+      <c r="P11" s="208"/>
+      <c r="Q11" s="208"/>
+      <c r="R11" s="208"/>
+      <c r="S11" s="208"/>
+      <c r="T11" s="208"/>
+      <c r="U11" s="208"/>
+      <c r="V11" s="208"/>
+      <c r="W11" s="208"/>
+      <c r="X11" s="208"/>
+      <c r="Y11" s="208"/>
+      <c r="Z11" s="208"/>
+      <c r="AA11" s="208"/>
+      <c r="AB11" s="208"/>
+      <c r="AC11" s="208"/>
+      <c r="AD11" s="208"/>
+      <c r="AE11" s="208"/>
+      <c r="AF11" s="208"/>
+      <c r="AG11" s="208"/>
+      <c r="AH11" s="208"/>
     </row>
     <row r="12" spans="1:38" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="66"/>
       <c r="B12" s="66"/>
       <c r="C12" s="66"/>
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="209" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="136"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="137"/>
-      <c r="H12" s="141" t="s">
+      <c r="E12" s="210"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="141"/>
-      <c r="J12" s="141"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="141"/>
-      <c r="Q12" s="141"/>
-      <c r="R12" s="141"/>
-      <c r="S12" s="141"/>
-      <c r="T12" s="141"/>
-      <c r="U12" s="141"/>
-      <c r="V12" s="141"/>
-      <c r="W12" s="141"/>
-      <c r="X12" s="141"/>
-      <c r="Y12" s="141"/>
-      <c r="Z12" s="141"/>
-      <c r="AA12" s="141"/>
-      <c r="AB12" s="141"/>
-      <c r="AC12" s="141"/>
-      <c r="AD12" s="141"/>
-      <c r="AE12" s="141"/>
-      <c r="AF12" s="141"/>
-      <c r="AG12" s="141"/>
-      <c r="AH12" s="141"/>
+      <c r="I12" s="207"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="207"/>
+      <c r="L12" s="207"/>
+      <c r="M12" s="207"/>
+      <c r="N12" s="207"/>
+      <c r="O12" s="207"/>
+      <c r="P12" s="207"/>
+      <c r="Q12" s="207"/>
+      <c r="R12" s="207"/>
+      <c r="S12" s="207"/>
+      <c r="T12" s="207"/>
+      <c r="U12" s="207"/>
+      <c r="V12" s="207"/>
+      <c r="W12" s="207"/>
+      <c r="X12" s="207"/>
+      <c r="Y12" s="207"/>
+      <c r="Z12" s="207"/>
+      <c r="AA12" s="207"/>
+      <c r="AB12" s="207"/>
+      <c r="AC12" s="207"/>
+      <c r="AD12" s="207"/>
+      <c r="AE12" s="207"/>
+      <c r="AF12" s="207"/>
+      <c r="AG12" s="207"/>
+      <c r="AH12" s="207"/>
     </row>
     <row r="13" spans="1:38" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="66"/>
       <c r="B13" s="66"/>
       <c r="C13" s="66"/>
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="209" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="136"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="141" t="s">
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="207" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="141"/>
-      <c r="Q13" s="141"/>
-      <c r="R13" s="141"/>
-      <c r="S13" s="141"/>
-      <c r="T13" s="141"/>
-      <c r="U13" s="141"/>
-      <c r="V13" s="141"/>
-      <c r="W13" s="141"/>
-      <c r="X13" s="141"/>
-      <c r="Y13" s="141"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="141"/>
-      <c r="AB13" s="141"/>
-      <c r="AC13" s="141"/>
-      <c r="AD13" s="141"/>
-      <c r="AE13" s="141"/>
-      <c r="AF13" s="141"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="141"/>
+      <c r="I13" s="207"/>
+      <c r="J13" s="207"/>
+      <c r="K13" s="207"/>
+      <c r="L13" s="207"/>
+      <c r="M13" s="207"/>
+      <c r="N13" s="207"/>
+      <c r="O13" s="207"/>
+      <c r="P13" s="207"/>
+      <c r="Q13" s="207"/>
+      <c r="R13" s="207"/>
+      <c r="S13" s="207"/>
+      <c r="T13" s="207"/>
+      <c r="U13" s="207"/>
+      <c r="V13" s="207"/>
+      <c r="W13" s="207"/>
+      <c r="X13" s="207"/>
+      <c r="Y13" s="207"/>
+      <c r="Z13" s="207"/>
+      <c r="AA13" s="207"/>
+      <c r="AB13" s="207"/>
+      <c r="AC13" s="207"/>
+      <c r="AD13" s="207"/>
+      <c r="AE13" s="207"/>
+      <c r="AF13" s="207"/>
+      <c r="AG13" s="207"/>
+      <c r="AH13" s="207"/>
     </row>
     <row r="14" spans="1:38" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="66"/>
       <c r="B14" s="66"/>
       <c r="C14" s="66"/>
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="209" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="137"/>
-      <c r="H14" s="141" t="s">
+      <c r="E14" s="210"/>
+      <c r="F14" s="210"/>
+      <c r="G14" s="211"/>
+      <c r="H14" s="207" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="141"/>
-      <c r="Q14" s="141"/>
-      <c r="R14" s="141"/>
-      <c r="S14" s="141"/>
-      <c r="T14" s="141"/>
-      <c r="U14" s="141"/>
-      <c r="V14" s="141"/>
-      <c r="W14" s="141"/>
-      <c r="X14" s="141"/>
-      <c r="Y14" s="141"/>
-      <c r="Z14" s="141"/>
-      <c r="AA14" s="141"/>
-      <c r="AB14" s="141"/>
-      <c r="AC14" s="141"/>
-      <c r="AD14" s="141"/>
-      <c r="AE14" s="141"/>
-      <c r="AF14" s="141"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
+      <c r="I14" s="207"/>
+      <c r="J14" s="207"/>
+      <c r="K14" s="207"/>
+      <c r="L14" s="207"/>
+      <c r="M14" s="207"/>
+      <c r="N14" s="207"/>
+      <c r="O14" s="207"/>
+      <c r="P14" s="207"/>
+      <c r="Q14" s="207"/>
+      <c r="R14" s="207"/>
+      <c r="S14" s="207"/>
+      <c r="T14" s="207"/>
+      <c r="U14" s="207"/>
+      <c r="V14" s="207"/>
+      <c r="W14" s="207"/>
+      <c r="X14" s="207"/>
+      <c r="Y14" s="207"/>
+      <c r="Z14" s="207"/>
+      <c r="AA14" s="207"/>
+      <c r="AB14" s="207"/>
+      <c r="AC14" s="207"/>
+      <c r="AD14" s="207"/>
+      <c r="AE14" s="207"/>
+      <c r="AF14" s="207"/>
+      <c r="AG14" s="207"/>
+      <c r="AH14" s="207"/>
     </row>
     <row r="15" spans="1:38" s="68" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="66"/>
       <c r="B15" s="66"/>
       <c r="C15" s="66"/>
-      <c r="D15" s="135" t="s">
+      <c r="D15" s="209" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="137"/>
+      <c r="E15" s="210"/>
+      <c r="F15" s="210"/>
+      <c r="G15" s="211"/>
       <c r="H15" s="72" t="s">
         <v>18</v>
       </c>
@@ -10079,30 +10173,30 @@
       <c r="D19" s="79"/>
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="140"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="139"/>
-      <c r="Q19" s="139"/>
-      <c r="R19" s="139"/>
-      <c r="S19" s="139"/>
-      <c r="T19" s="139"/>
-      <c r="U19" s="139"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="139"/>
-      <c r="AA19" s="139"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="217"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="217"/>
+      <c r="L19" s="217"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="215"/>
+      <c r="P19" s="216"/>
+      <c r="Q19" s="216"/>
+      <c r="R19" s="216"/>
+      <c r="S19" s="216"/>
+      <c r="T19" s="216"/>
+      <c r="U19" s="216"/>
+      <c r="V19" s="216"/>
+      <c r="W19" s="216"/>
+      <c r="X19" s="216"/>
+      <c r="Y19" s="216"/>
+      <c r="Z19" s="216"/>
+      <c r="AA19" s="216"/>
+      <c r="AB19" s="216"/>
+      <c r="AC19" s="216"/>
+      <c r="AD19" s="216"/>
       <c r="AE19" s="80"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -10554,14 +10648,15 @@
     <row r="34" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -10578,15 +10673,14 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
@@ -10599,11 +10693,224 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr codeName="Sheet5">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AI6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="4.83203125" style="82"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="192" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
+        <v>Project name</v>
+      </c>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="138" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
+        <v>Sample Project</v>
+      </c>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="195" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
+        <v>Deliverable name</v>
+      </c>
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="156" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
+        <v>System Function Design Document(Web Services)</v>
+      </c>
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="192" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
+        <v>Prepared by</v>
+      </c>
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="127" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="204">
+        <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
+        <v>43718</v>
+      </c>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="206"/>
+    </row>
+    <row r="2" spans="1:35" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="192" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
+        <v>System name</v>
+      </c>
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="138" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
+        <v>Sample System</v>
+      </c>
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="192" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
+        <v>Changes</v>
+      </c>
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="127" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
+        <v/>
+      </c>
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="204" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
+        <v/>
+      </c>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+    </row>
+    <row r="3" spans="1:35" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="192" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
+        <v>Sub-system name</v>
+      </c>
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="138" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
+        <v>Client Management System</v>
+      </c>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="127" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
+        <v/>
+      </c>
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="204" t="str">
+        <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
+        <v/>
+      </c>
+      <c r="AH3" s="205"/>
+      <c r="AI3" s="206"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL71"/>
+  <dimension ref="A1:AL70"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -10615,169 +10922,169 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="str">
+      <c r="A1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
         <v>Project name</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="118" t="str">
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="138" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
         <v>Sample Project</v>
       </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="124" t="str">
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
+      <c r="M1" s="139"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="195" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
         <v>Deliverable name</v>
       </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="223" t="str">
+      <c r="P1" s="196"/>
+      <c r="Q1" s="196"/>
+      <c r="R1" s="197"/>
+      <c r="S1" s="156" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
         <v>System Function Design Document(Web Services)</v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="121" t="str">
+      <c r="T1" s="157"/>
+      <c r="U1" s="157"/>
+      <c r="V1" s="157"/>
+      <c r="W1" s="157"/>
+      <c r="X1" s="157"/>
+      <c r="Y1" s="157"/>
+      <c r="Z1" s="158"/>
+      <c r="AA1" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
         <v>Prepared by</v>
       </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="226" t="str">
+      <c r="AB1" s="194"/>
+      <c r="AC1" s="127" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="115">
+      <c r="AD1" s="128"/>
+      <c r="AE1" s="128"/>
+      <c r="AF1" s="129"/>
+      <c r="AG1" s="204">
         <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="117"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="206"/>
       <c r="AJ1" s="83"/>
       <c r="AK1" s="83"/>
       <c r="AL1" s="84"/>
     </row>
     <row r="2" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="str">
+      <c r="A2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
         <v>System name</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="118" t="str">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="138" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
         <v>Sample System</v>
       </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="233"/>
-      <c r="U2" s="233"/>
-      <c r="V2" s="233"/>
-      <c r="W2" s="233"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="233"/>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="121" t="str">
+      <c r="F2" s="139"/>
+      <c r="G2" s="139"/>
+      <c r="H2" s="139"/>
+      <c r="I2" s="139"/>
+      <c r="J2" s="139"/>
+      <c r="K2" s="139"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="139"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="198"/>
+      <c r="P2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
+      <c r="S2" s="159"/>
+      <c r="T2" s="160"/>
+      <c r="U2" s="160"/>
+      <c r="V2" s="160"/>
+      <c r="W2" s="160"/>
+      <c r="X2" s="160"/>
+      <c r="Y2" s="160"/>
+      <c r="Z2" s="161"/>
+      <c r="AA2" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
         <v>Changes</v>
       </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="226" t="str">
+      <c r="AB2" s="194"/>
+      <c r="AC2" s="127" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="115" t="str">
+      <c r="AD2" s="128"/>
+      <c r="AE2" s="128"/>
+      <c r="AF2" s="129"/>
+      <c r="AG2" s="204" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="117"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
       <c r="AJ2" s="83"/>
       <c r="AK2" s="83"/>
       <c r="AL2" s="83"/>
     </row>
     <row r="3" spans="1:38" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="str">
+      <c r="A3" s="192" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
         <v>Sub-system name</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="118" t="str">
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="194"/>
+      <c r="E3" s="138" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
         <v>Client Management System</v>
       </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="241"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
-      <c r="W3" s="242"/>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="226" t="str">
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="201"/>
+      <c r="P3" s="202"/>
+      <c r="Q3" s="202"/>
+      <c r="R3" s="203"/>
+      <c r="S3" s="162"/>
+      <c r="T3" s="163"/>
+      <c r="U3" s="163"/>
+      <c r="V3" s="163"/>
+      <c r="W3" s="163"/>
+      <c r="X3" s="163"/>
+      <c r="Y3" s="163"/>
+      <c r="Z3" s="164"/>
+      <c r="AA3" s="192"/>
+      <c r="AB3" s="194"/>
+      <c r="AC3" s="127" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="115" t="str">
+      <c r="AD3" s="128"/>
+      <c r="AE3" s="128"/>
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="204" t="str">
         <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="117"/>
+      <c r="AH3" s="205"/>
+      <c r="AI3" s="206"/>
       <c r="AJ3" s="83"/>
       <c r="AK3" s="83"/>
       <c r="AL3" s="83"/>
@@ -10895,65 +11202,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B8" s="66"/>
       <c r="C8" s="66"/>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="169" t="s">
+      <c r="E8" s="259" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="171"/>
-      <c r="K8" s="169" t="s">
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="261"/>
+      <c r="K8" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="171"/>
-      <c r="O8" s="175" t="s">
+      <c r="L8" s="260"/>
+      <c r="M8" s="260"/>
+      <c r="N8" s="261"/>
+      <c r="O8" s="265" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="180" t="s">
+      <c r="P8" s="270" t="s">
         <v>23</v>
       </c>
-      <c r="Q8" s="181"/>
-      <c r="R8" s="181"/>
-      <c r="S8" s="181"/>
-      <c r="T8" s="181"/>
-      <c r="U8" s="182"/>
-      <c r="V8" s="177" t="s">
+      <c r="Q8" s="271"/>
+      <c r="R8" s="271"/>
+      <c r="S8" s="271"/>
+      <c r="T8" s="271"/>
+      <c r="U8" s="272"/>
+      <c r="V8" s="267" t="s">
         <v>24</v>
       </c>
-      <c r="W8" s="177"/>
-      <c r="X8" s="177"/>
-      <c r="Y8" s="177"/>
-      <c r="Z8" s="177"/>
-      <c r="AA8" s="177"/>
-      <c r="AB8" s="177"/>
-      <c r="AC8" s="177"/>
-      <c r="AD8" s="177"/>
-      <c r="AE8" s="177"/>
-      <c r="AF8" s="177"/>
-      <c r="AG8" s="177"/>
-      <c r="AH8" s="177"/>
+      <c r="W8" s="267"/>
+      <c r="X8" s="267"/>
+      <c r="Y8" s="267"/>
+      <c r="Z8" s="267"/>
+      <c r="AA8" s="267"/>
+      <c r="AB8" s="267"/>
+      <c r="AC8" s="267"/>
+      <c r="AD8" s="267"/>
+      <c r="AE8" s="267"/>
+      <c r="AF8" s="267"/>
+      <c r="AG8" s="267"/>
+      <c r="AH8" s="267"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B9" s="66"/>
       <c r="C9" s="66"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="173"/>
-      <c r="G9" s="173"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="173"/>
-      <c r="M9" s="173"/>
-      <c r="N9" s="174"/>
-      <c r="O9" s="176"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="262"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="263"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="264"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="263"/>
+      <c r="M9" s="263"/>
+      <c r="N9" s="264"/>
+      <c r="O9" s="266"/>
       <c r="P9" s="86" t="s">
         <v>25</v>
       </c>
@@ -10966,23 +11273,23 @@
       <c r="S9" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="T9" s="178" t="s">
+      <c r="T9" s="268" t="s">
         <v>29</v>
       </c>
-      <c r="U9" s="179"/>
-      <c r="V9" s="177"/>
-      <c r="W9" s="177"/>
-      <c r="X9" s="177"/>
-      <c r="Y9" s="177"/>
-      <c r="Z9" s="177"/>
-      <c r="AA9" s="177"/>
-      <c r="AB9" s="177"/>
-      <c r="AC9" s="177"/>
-      <c r="AD9" s="177"/>
-      <c r="AE9" s="177"/>
-      <c r="AF9" s="177"/>
-      <c r="AG9" s="177"/>
-      <c r="AH9" s="177"/>
+      <c r="U9" s="269"/>
+      <c r="V9" s="267"/>
+      <c r="W9" s="267"/>
+      <c r="X9" s="267"/>
+      <c r="Y9" s="267"/>
+      <c r="Z9" s="267"/>
+      <c r="AA9" s="267"/>
+      <c r="AB9" s="267"/>
+      <c r="AC9" s="267"/>
+      <c r="AD9" s="267"/>
+      <c r="AE9" s="267"/>
+      <c r="AF9" s="267"/>
+      <c r="AG9" s="267"/>
+      <c r="AH9" s="267"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B10" s="66"/>
@@ -10990,20 +11297,20 @@
       <c r="D10" s="87">
         <v>1</v>
       </c>
-      <c r="E10" s="157" t="s">
+      <c r="E10" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="158"/>
-      <c r="G10" s="158"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="158"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="157" t="s">
+      <c r="F10" s="175"/>
+      <c r="G10" s="175"/>
+      <c r="H10" s="175"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="176"/>
+      <c r="K10" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="158"/>
-      <c r="M10" s="158"/>
-      <c r="N10" s="159"/>
+      <c r="L10" s="175"/>
+      <c r="M10" s="175"/>
+      <c r="N10" s="176"/>
       <c r="O10" s="88" t="s">
         <v>32</v>
       </c>
@@ -11019,23 +11326,23 @@
       <c r="S10" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="T10" s="160" t="s">
+      <c r="T10" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="161"/>
-      <c r="V10" s="157"/>
-      <c r="W10" s="158"/>
-      <c r="X10" s="158"/>
-      <c r="Y10" s="158"/>
-      <c r="Z10" s="158"/>
-      <c r="AA10" s="158"/>
-      <c r="AB10" s="158"/>
-      <c r="AC10" s="158"/>
-      <c r="AD10" s="158"/>
-      <c r="AE10" s="158"/>
-      <c r="AF10" s="158"/>
-      <c r="AG10" s="158"/>
-      <c r="AH10" s="159"/>
+      <c r="U10" s="278"/>
+      <c r="V10" s="174"/>
+      <c r="W10" s="175"/>
+      <c r="X10" s="175"/>
+      <c r="Y10" s="175"/>
+      <c r="Z10" s="175"/>
+      <c r="AA10" s="175"/>
+      <c r="AB10" s="175"/>
+      <c r="AC10" s="175"/>
+      <c r="AD10" s="175"/>
+      <c r="AE10" s="175"/>
+      <c r="AF10" s="175"/>
+      <c r="AG10" s="175"/>
+      <c r="AH10" s="176"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B11" s="66"/>
@@ -11043,25 +11350,25 @@
       <c r="D11" s="87">
         <v>2</v>
       </c>
-      <c r="E11" s="157" t="s">
+      <c r="E11" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="158"/>
-      <c r="G11" s="158"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="158"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="157" t="s">
+      <c r="F11" s="175"/>
+      <c r="G11" s="175"/>
+      <c r="H11" s="175"/>
+      <c r="I11" s="175"/>
+      <c r="J11" s="176"/>
+      <c r="K11" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="158"/>
-      <c r="M11" s="158"/>
-      <c r="N11" s="159"/>
+      <c r="L11" s="175"/>
+      <c r="M11" s="175"/>
+      <c r="N11" s="176"/>
       <c r="O11" s="90" t="s">
         <v>36</v>
       </c>
       <c r="P11" s="89" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="89" t="s">
         <v>33</v>
@@ -11072,23 +11379,23 @@
       <c r="S11" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="T11" s="160" t="s">
+      <c r="T11" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="161"/>
-      <c r="V11" s="157"/>
-      <c r="W11" s="158"/>
-      <c r="X11" s="158"/>
-      <c r="Y11" s="158"/>
-      <c r="Z11" s="158"/>
-      <c r="AA11" s="158"/>
-      <c r="AB11" s="158"/>
-      <c r="AC11" s="158"/>
-      <c r="AD11" s="158"/>
-      <c r="AE11" s="158"/>
-      <c r="AF11" s="158"/>
-      <c r="AG11" s="158"/>
-      <c r="AH11" s="159"/>
+      <c r="U11" s="278"/>
+      <c r="V11" s="174"/>
+      <c r="W11" s="175"/>
+      <c r="X11" s="175"/>
+      <c r="Y11" s="175"/>
+      <c r="Z11" s="175"/>
+      <c r="AA11" s="175"/>
+      <c r="AB11" s="175"/>
+      <c r="AC11" s="175"/>
+      <c r="AD11" s="175"/>
+      <c r="AE11" s="175"/>
+      <c r="AF11" s="175"/>
+      <c r="AG11" s="175"/>
+      <c r="AH11" s="176"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B12" s="66"/>
@@ -11096,20 +11403,20 @@
       <c r="D12" s="87">
         <v>3</v>
       </c>
-      <c r="E12" s="157" t="s">
+      <c r="E12" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="157" t="s">
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="L12" s="158"/>
-      <c r="M12" s="158"/>
-      <c r="N12" s="159"/>
+      <c r="L12" s="175"/>
+      <c r="M12" s="175"/>
+      <c r="N12" s="176"/>
       <c r="O12" s="90" t="s">
         <v>36</v>
       </c>
@@ -11125,23 +11432,23 @@
       <c r="S12" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="160" t="s">
+      <c r="T12" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="161"/>
-      <c r="V12" s="157"/>
-      <c r="W12" s="158"/>
-      <c r="X12" s="158"/>
-      <c r="Y12" s="158"/>
-      <c r="Z12" s="158"/>
-      <c r="AA12" s="158"/>
-      <c r="AB12" s="158"/>
-      <c r="AC12" s="158"/>
-      <c r="AD12" s="158"/>
-      <c r="AE12" s="158"/>
-      <c r="AF12" s="158"/>
-      <c r="AG12" s="158"/>
-      <c r="AH12" s="159"/>
+      <c r="U12" s="278"/>
+      <c r="V12" s="174"/>
+      <c r="W12" s="175"/>
+      <c r="X12" s="175"/>
+      <c r="Y12" s="175"/>
+      <c r="Z12" s="175"/>
+      <c r="AA12" s="175"/>
+      <c r="AB12" s="175"/>
+      <c r="AC12" s="175"/>
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="175"/>
+      <c r="AF12" s="175"/>
+      <c r="AG12" s="175"/>
+      <c r="AH12" s="176"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.2">
       <c r="B13" s="66"/>
@@ -11285,171 +11592,171 @@
       <c r="AG16" s="76"/>
       <c r="AH16" s="76"/>
     </row>
-    <row r="17" spans="1:35" s="96" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:34" s="96" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="66"/>
       <c r="C17" s="76"/>
       <c r="D17" s="97" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="146" t="s">
+      <c r="E17" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="187" t="s">
+      <c r="F17" s="283"/>
+      <c r="G17" s="284"/>
+      <c r="H17" s="279" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="188"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="188"/>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="188"/>
-      <c r="S17" s="188"/>
-      <c r="T17" s="188"/>
-      <c r="U17" s="188"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="188"/>
-      <c r="X17" s="188"/>
-      <c r="Y17" s="188"/>
-      <c r="Z17" s="188"/>
-      <c r="AA17" s="188"/>
-      <c r="AB17" s="188"/>
-      <c r="AC17" s="188"/>
-      <c r="AD17" s="188"/>
-      <c r="AE17" s="188"/>
-      <c r="AF17" s="188"/>
-      <c r="AG17" s="188"/>
-      <c r="AH17" s="189"/>
-    </row>
-    <row r="18" spans="1:35" s="96" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="280"/>
+      <c r="J17" s="280"/>
+      <c r="K17" s="280"/>
+      <c r="L17" s="280"/>
+      <c r="M17" s="280"/>
+      <c r="N17" s="280"/>
+      <c r="O17" s="280"/>
+      <c r="P17" s="280"/>
+      <c r="Q17" s="280"/>
+      <c r="R17" s="280"/>
+      <c r="S17" s="280"/>
+      <c r="T17" s="280"/>
+      <c r="U17" s="280"/>
+      <c r="V17" s="280"/>
+      <c r="W17" s="280"/>
+      <c r="X17" s="280"/>
+      <c r="Y17" s="280"/>
+      <c r="Z17" s="280"/>
+      <c r="AA17" s="280"/>
+      <c r="AB17" s="280"/>
+      <c r="AC17" s="280"/>
+      <c r="AD17" s="280"/>
+      <c r="AE17" s="280"/>
+      <c r="AF17" s="280"/>
+      <c r="AG17" s="280"/>
+      <c r="AH17" s="281"/>
+    </row>
+    <row r="18" spans="1:34" s="96" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="66"/>
       <c r="C18" s="76"/>
       <c r="D18" s="87">
         <v>1</v>
       </c>
-      <c r="E18" s="157" t="s">
+      <c r="E18" s="174" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="175"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="158"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="157" t="s">
-        <v>41</v>
-      </c>
-      <c r="I18" s="158"/>
-      <c r="J18" s="158"/>
-      <c r="K18" s="158"/>
-      <c r="L18" s="158"/>
-      <c r="M18" s="158"/>
-      <c r="N18" s="158"/>
-      <c r="O18" s="158"/>
-      <c r="P18" s="158"/>
-      <c r="Q18" s="158"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="158"/>
-      <c r="T18" s="158"/>
-      <c r="U18" s="158"/>
-      <c r="V18" s="158"/>
-      <c r="W18" s="158"/>
-      <c r="X18" s="158"/>
-      <c r="Y18" s="158"/>
-      <c r="Z18" s="158"/>
-      <c r="AA18" s="158"/>
-      <c r="AB18" s="158"/>
-      <c r="AC18" s="158"/>
-      <c r="AD18" s="158"/>
-      <c r="AE18" s="158"/>
-      <c r="AF18" s="158"/>
-      <c r="AG18" s="158"/>
-      <c r="AH18" s="159"/>
-    </row>
-    <row r="19" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="175"/>
+      <c r="M18" s="175"/>
+      <c r="N18" s="175"/>
+      <c r="O18" s="175"/>
+      <c r="P18" s="175"/>
+      <c r="Q18" s="175"/>
+      <c r="R18" s="175"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="175"/>
+      <c r="U18" s="175"/>
+      <c r="V18" s="175"/>
+      <c r="W18" s="175"/>
+      <c r="X18" s="175"/>
+      <c r="Y18" s="175"/>
+      <c r="Z18" s="175"/>
+      <c r="AA18" s="175"/>
+      <c r="AB18" s="175"/>
+      <c r="AC18" s="175"/>
+      <c r="AD18" s="175"/>
+      <c r="AE18" s="175"/>
+      <c r="AF18" s="175"/>
+      <c r="AG18" s="175"/>
+      <c r="AH18" s="176"/>
+    </row>
+    <row r="19" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="37"/>
       <c r="C19" s="76"/>
       <c r="D19" s="87">
         <v>2</v>
       </c>
-      <c r="E19" s="157" t="s">
+      <c r="E19" s="174" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="175"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="158"/>
-      <c r="G19" s="159"/>
-      <c r="H19" s="157" t="s">
-        <v>43</v>
-      </c>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="158"/>
-      <c r="L19" s="158"/>
-      <c r="M19" s="158"/>
-      <c r="N19" s="158"/>
-      <c r="O19" s="158"/>
-      <c r="P19" s="158"/>
-      <c r="Q19" s="158"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="158"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="158"/>
-      <c r="V19" s="158"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="158"/>
-      <c r="Z19" s="158"/>
-      <c r="AA19" s="158"/>
-      <c r="AB19" s="158"/>
-      <c r="AC19" s="158"/>
-      <c r="AD19" s="158"/>
-      <c r="AE19" s="158"/>
-      <c r="AF19" s="158"/>
-      <c r="AG19" s="158"/>
-      <c r="AH19" s="159"/>
-    </row>
-    <row r="20" spans="1:35" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="175"/>
+      <c r="N19" s="175"/>
+      <c r="O19" s="175"/>
+      <c r="P19" s="175"/>
+      <c r="Q19" s="175"/>
+      <c r="R19" s="175"/>
+      <c r="S19" s="175"/>
+      <c r="T19" s="175"/>
+      <c r="U19" s="175"/>
+      <c r="V19" s="175"/>
+      <c r="W19" s="175"/>
+      <c r="X19" s="175"/>
+      <c r="Y19" s="175"/>
+      <c r="Z19" s="175"/>
+      <c r="AA19" s="175"/>
+      <c r="AB19" s="175"/>
+      <c r="AC19" s="175"/>
+      <c r="AD19" s="175"/>
+      <c r="AE19" s="175"/>
+      <c r="AF19" s="175"/>
+      <c r="AG19" s="175"/>
+      <c r="AH19" s="176"/>
+    </row>
+    <row r="20" spans="1:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="37"/>
       <c r="C20" s="76"/>
       <c r="D20" s="87">
         <v>3</v>
       </c>
-      <c r="E20" s="157" t="s">
+      <c r="E20" s="174" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="175"/>
+      <c r="G20" s="176"/>
+      <c r="H20" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="158"/>
-      <c r="G20" s="159"/>
-      <c r="H20" s="157" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="158"/>
-      <c r="J20" s="158"/>
-      <c r="K20" s="158"/>
-      <c r="L20" s="158"/>
-      <c r="M20" s="158"/>
-      <c r="N20" s="158"/>
-      <c r="O20" s="158"/>
-      <c r="P20" s="158"/>
-      <c r="Q20" s="158"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="158"/>
-      <c r="T20" s="158"/>
-      <c r="U20" s="158"/>
-      <c r="V20" s="158"/>
-      <c r="W20" s="158"/>
-      <c r="X20" s="158"/>
-      <c r="Y20" s="158"/>
-      <c r="Z20" s="158"/>
-      <c r="AA20" s="158"/>
-      <c r="AB20" s="158"/>
-      <c r="AC20" s="158"/>
-      <c r="AD20" s="158"/>
-      <c r="AE20" s="158"/>
-      <c r="AF20" s="158"/>
-      <c r="AG20" s="158"/>
-      <c r="AH20" s="159"/>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="175"/>
+      <c r="O20" s="175"/>
+      <c r="P20" s="175"/>
+      <c r="Q20" s="175"/>
+      <c r="R20" s="175"/>
+      <c r="S20" s="175"/>
+      <c r="T20" s="175"/>
+      <c r="U20" s="175"/>
+      <c r="V20" s="175"/>
+      <c r="W20" s="175"/>
+      <c r="X20" s="175"/>
+      <c r="Y20" s="175"/>
+      <c r="Z20" s="175"/>
+      <c r="AA20" s="175"/>
+      <c r="AB20" s="175"/>
+      <c r="AC20" s="175"/>
+      <c r="AD20" s="175"/>
+      <c r="AE20" s="175"/>
+      <c r="AF20" s="175"/>
+      <c r="AG20" s="175"/>
+      <c r="AH20" s="176"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B21" s="98"/>
       <c r="C21" s="76"/>
       <c r="D21" s="99"/>
@@ -11484,7 +11791,7 @@
       <c r="AG21" s="76"/>
       <c r="AH21" s="76"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B22" s="98"/>
       <c r="C22" s="98"/>
       <c r="D22" s="98"/>
@@ -11519,7 +11826,7 @@
       <c r="AG22" s="76"/>
       <c r="AH22" s="76"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B23" s="98"/>
       <c r="C23" s="76" t="s">
         <v>5</v>
@@ -11556,11 +11863,11 @@
       <c r="AG23" s="104"/>
       <c r="AH23" s="104"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B24" s="98"/>
       <c r="C24" s="76"/>
       <c r="D24" s="103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E24" s="103"/>
       <c r="F24" s="103"/>
@@ -11593,7 +11900,7 @@
       <c r="AG24" s="104"/>
       <c r="AH24" s="104"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B25" s="98"/>
       <c r="C25" s="76"/>
       <c r="D25" s="103"/>
@@ -11628,11 +11935,11 @@
       <c r="AG25" s="104"/>
       <c r="AH25" s="104"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B26" s="98"/>
       <c r="C26" s="76"/>
       <c r="E26" s="37" t="s">
-        <v>47</v>
+        <v>123</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -11664,7 +11971,7 @@
       <c r="AG26" s="104"/>
       <c r="AH26" s="105"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="98"/>
       <c r="C27" s="76"/>
@@ -11700,51 +12007,51 @@
       <c r="AG27" s="104"/>
       <c r="AH27" s="105"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="98"/>
       <c r="C28" s="76"/>
       <c r="D28" s="104"/>
-      <c r="E28" s="162" t="s">
+      <c r="E28" s="287" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="287"/>
+      <c r="G28" s="258" t="s">
+        <v>47</v>
+      </c>
+      <c r="H28" s="258"/>
+      <c r="I28" s="258"/>
+      <c r="J28" s="258"/>
+      <c r="K28" s="258"/>
+      <c r="L28" s="258"/>
+      <c r="M28" s="276" t="s">
         <v>48</v>
       </c>
-      <c r="F28" s="162"/>
-      <c r="G28" s="168" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="168"/>
-      <c r="I28" s="168"/>
-      <c r="J28" s="168"/>
-      <c r="K28" s="168"/>
-      <c r="L28" s="168"/>
-      <c r="M28" s="186" t="s">
-        <v>50</v>
-      </c>
-      <c r="N28" s="186"/>
-      <c r="O28" s="183" t="s">
+      <c r="N28" s="276"/>
+      <c r="O28" s="273" t="s">
         <v>30</v>
       </c>
-      <c r="P28" s="184"/>
-      <c r="Q28" s="184"/>
-      <c r="R28" s="184"/>
-      <c r="S28" s="184"/>
-      <c r="T28" s="184"/>
-      <c r="U28" s="184"/>
-      <c r="V28" s="184"/>
-      <c r="W28" s="184"/>
-      <c r="X28" s="184"/>
-      <c r="Y28" s="184"/>
-      <c r="Z28" s="184"/>
-      <c r="AA28" s="184"/>
-      <c r="AB28" s="184"/>
-      <c r="AC28" s="184"/>
-      <c r="AD28" s="184"/>
-      <c r="AE28" s="184"/>
-      <c r="AF28" s="184"/>
-      <c r="AG28" s="184"/>
-      <c r="AH28" s="185"/>
-    </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="P28" s="274"/>
+      <c r="Q28" s="274"/>
+      <c r="R28" s="274"/>
+      <c r="S28" s="274"/>
+      <c r="T28" s="274"/>
+      <c r="U28" s="274"/>
+      <c r="V28" s="274"/>
+      <c r="W28" s="274"/>
+      <c r="X28" s="274"/>
+      <c r="Y28" s="274"/>
+      <c r="Z28" s="274"/>
+      <c r="AA28" s="274"/>
+      <c r="AB28" s="274"/>
+      <c r="AC28" s="274"/>
+      <c r="AD28" s="274"/>
+      <c r="AE28" s="274"/>
+      <c r="AF28" s="274"/>
+      <c r="AG28" s="274"/>
+      <c r="AH28" s="275"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="37"/>
       <c r="C29" s="76"/>
@@ -11780,120 +12087,135 @@
       <c r="AG29" s="104"/>
       <c r="AH29" s="105"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
-      <c r="W30" s="26"/>
-      <c r="X30" s="26"/>
-      <c r="Y30" s="26"/>
-      <c r="Z30" s="26"/>
-      <c r="AA30" s="26"/>
-      <c r="AB30" s="26"/>
-      <c r="AC30" s="26"/>
-      <c r="AD30" s="26"/>
-      <c r="AE30" s="26"/>
-      <c r="AF30" s="26"/>
-      <c r="AG30" s="26"/>
-      <c r="AH30" s="26"/>
-      <c r="AI30" s="26"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:34" s="288" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="B30" s="114"/>
+      <c r="C30" s="114"/>
+      <c r="E30" s="289" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="290" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" s="291"/>
+      <c r="H30" s="291"/>
+      <c r="I30" s="291"/>
+      <c r="J30" s="291"/>
+      <c r="K30" s="292"/>
+      <c r="L30" s="290" t="s">
+        <v>104</v>
+      </c>
+      <c r="M30" s="291"/>
+      <c r="N30" s="291"/>
+      <c r="O30" s="291"/>
+      <c r="P30" s="291"/>
+      <c r="Q30" s="291"/>
+      <c r="R30" s="291"/>
+      <c r="S30" s="291"/>
+      <c r="T30" s="291"/>
+      <c r="U30" s="292"/>
+      <c r="V30" s="293" t="s">
+        <v>105</v>
+      </c>
+      <c r="W30" s="290" t="s">
+        <v>106</v>
+      </c>
+      <c r="X30" s="291"/>
+      <c r="Y30" s="291"/>
+      <c r="Z30" s="291"/>
+      <c r="AA30" s="291"/>
+      <c r="AB30" s="294"/>
+      <c r="AC30" s="294"/>
+      <c r="AD30" s="292"/>
+      <c r="AG30" s="114"/>
+      <c r="AH30" s="295"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
-      <c r="W31" s="26"/>
-      <c r="X31" s="26"/>
-      <c r="Y31" s="26"/>
-      <c r="Z31" s="26"/>
-      <c r="AA31" s="26"/>
-      <c r="AB31" s="26"/>
-      <c r="AC31" s="26"/>
-      <c r="AD31" s="26"/>
-      <c r="AE31" s="26"/>
-      <c r="AF31" s="26"/>
-      <c r="AG31" s="26"/>
-      <c r="AH31" s="26"/>
-      <c r="AI31" s="26"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B31" s="98"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="296">
+        <v>1</v>
+      </c>
+      <c r="F31" s="297" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" s="298"/>
+      <c r="H31" s="298"/>
+      <c r="I31" s="298"/>
+      <c r="J31" s="298"/>
+      <c r="K31" s="299"/>
+      <c r="L31" s="297" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" s="298"/>
+      <c r="N31" s="298"/>
+      <c r="O31" s="298"/>
+      <c r="P31" s="298"/>
+      <c r="Q31" s="298"/>
+      <c r="R31" s="298"/>
+      <c r="S31" s="298"/>
+      <c r="T31" s="298"/>
+      <c r="U31" s="299"/>
+      <c r="V31" s="297" t="s">
+        <v>111</v>
+      </c>
+      <c r="W31" s="300" t="s">
+        <v>108</v>
+      </c>
+      <c r="X31" s="301"/>
+      <c r="Y31" s="301"/>
+      <c r="Z31" s="301"/>
+      <c r="AA31" s="301"/>
+      <c r="AB31" s="301"/>
+      <c r="AC31" s="302"/>
+      <c r="AD31" s="303"/>
+      <c r="AG31" s="104"/>
+      <c r="AH31" s="105"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
-      <c r="W32" s="26"/>
-      <c r="X32" s="26"/>
-      <c r="Y32" s="26"/>
-      <c r="Z32" s="26"/>
-      <c r="AA32" s="26"/>
-      <c r="AB32" s="26"/>
-      <c r="AC32" s="26"/>
-      <c r="AD32" s="26"/>
-      <c r="AE32" s="26"/>
-      <c r="AF32" s="26"/>
-      <c r="AG32" s="26"/>
-      <c r="AH32" s="26"/>
-      <c r="AI32" s="26"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="304">
+        <v>2</v>
+      </c>
+      <c r="F32" s="300" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="301"/>
+      <c r="H32" s="301"/>
+      <c r="I32" s="301"/>
+      <c r="J32" s="301"/>
+      <c r="K32" s="305"/>
+      <c r="L32" s="300" t="s">
+        <v>110</v>
+      </c>
+      <c r="M32" s="301"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="301"/>
+      <c r="P32" s="301"/>
+      <c r="Q32" s="301"/>
+      <c r="R32" s="301"/>
+      <c r="S32" s="301"/>
+      <c r="T32" s="301"/>
+      <c r="U32" s="305"/>
+      <c r="V32" s="297" t="s">
+        <v>111</v>
+      </c>
+      <c r="W32" s="300" t="s">
+        <v>110</v>
+      </c>
+      <c r="X32" s="301"/>
+      <c r="Y32" s="301"/>
+      <c r="Z32" s="301"/>
+      <c r="AA32" s="301"/>
+      <c r="AB32" s="301"/>
+      <c r="AC32" s="302"/>
+      <c r="AD32" s="303"/>
+      <c r="AG32" s="104"/>
+      <c r="AH32" s="105"/>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
@@ -11932,100 +12254,80 @@
       <c r="AH33" s="26"/>
       <c r="AI33" s="26"/>
     </row>
-    <row r="34" spans="1:35" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A34" s="26"/>
       <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
+      <c r="C34" s="26" t="s">
+        <v>6</v>
+      </c>
       <c r="D34" s="26"/>
-      <c r="E34" s="106" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="206" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="207"/>
-      <c r="H34" s="207"/>
-      <c r="I34" s="207"/>
-      <c r="J34" s="207"/>
-      <c r="K34" s="208"/>
-      <c r="L34" s="206" t="s">
-        <v>53</v>
-      </c>
-      <c r="M34" s="207"/>
-      <c r="N34" s="207"/>
-      <c r="O34" s="207"/>
-      <c r="P34" s="207"/>
-      <c r="Q34" s="207"/>
-      <c r="R34" s="207"/>
-      <c r="S34" s="207"/>
-      <c r="T34" s="207"/>
-      <c r="U34" s="208"/>
-      <c r="V34" s="203" t="s">
-        <v>48</v>
-      </c>
-      <c r="W34" s="204"/>
-      <c r="X34" s="205"/>
-      <c r="Y34" s="201" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z34" s="202"/>
-      <c r="AA34" s="202"/>
-      <c r="AB34" s="209"/>
-      <c r="AC34" s="210" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD34" s="211"/>
-      <c r="AE34" s="211"/>
-      <c r="AF34" s="212"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
+      <c r="W34" s="26"/>
+      <c r="X34" s="26"/>
+      <c r="Y34" s="26"/>
+      <c r="Z34" s="26"/>
+      <c r="AA34" s="26"/>
+      <c r="AB34" s="26"/>
+      <c r="AC34" s="26"/>
+      <c r="AD34" s="26"/>
+      <c r="AE34" s="26"/>
+      <c r="AF34" s="26"/>
       <c r="AG34" s="26"/>
       <c r="AH34" s="26"/>
       <c r="AI34" s="26"/>
     </row>
-    <row r="35" spans="1:35" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="107">
-        <v>1</v>
-      </c>
-      <c r="F35" s="213" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" s="214"/>
-      <c r="H35" s="214"/>
-      <c r="I35" s="214"/>
-      <c r="J35" s="214"/>
-      <c r="K35" s="215"/>
-      <c r="L35" s="213" t="s">
-        <v>57</v>
-      </c>
-      <c r="M35" s="214"/>
-      <c r="N35" s="214"/>
-      <c r="O35" s="214"/>
-      <c r="P35" s="214"/>
-      <c r="Q35" s="214"/>
-      <c r="R35" s="214"/>
-      <c r="S35" s="214"/>
-      <c r="T35" s="214"/>
-      <c r="U35" s="215"/>
-      <c r="V35" s="216" t="s">
-        <v>58</v>
-      </c>
-      <c r="W35" s="217"/>
-      <c r="X35" s="218"/>
-      <c r="Y35" s="163" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z35" s="164"/>
-      <c r="AA35" s="164"/>
-      <c r="AB35" s="165"/>
-      <c r="AC35" s="213" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD35" s="214"/>
-      <c r="AE35" s="214"/>
-      <c r="AF35" s="215"/>
+      <c r="D35" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
+      <c r="W35" s="26"/>
+      <c r="X35" s="26"/>
+      <c r="Y35" s="26"/>
+      <c r="Z35" s="26"/>
+      <c r="AA35" s="26"/>
+      <c r="AB35" s="26"/>
+      <c r="AC35" s="26"/>
+      <c r="AD35" s="26"/>
+      <c r="AE35" s="26"/>
+      <c r="AF35" s="26"/>
       <c r="AG35" s="26"/>
       <c r="AH35" s="26"/>
       <c r="AI35" s="26"/>
@@ -12067,100 +12369,140 @@
       <c r="AH36" s="26"/>
       <c r="AI36" s="26"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:35" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="26"/>
-      <c r="E37" s="82" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA37" s="26"/>
-      <c r="AB37" s="26"/>
-      <c r="AC37" s="26"/>
-      <c r="AD37" s="26"/>
-      <c r="AE37" s="26"/>
-      <c r="AF37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="106" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="227" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="228"/>
+      <c r="H37" s="228"/>
+      <c r="I37" s="228"/>
+      <c r="J37" s="228"/>
+      <c r="K37" s="229"/>
+      <c r="L37" s="227" t="s">
+        <v>51</v>
+      </c>
+      <c r="M37" s="228"/>
+      <c r="N37" s="228"/>
+      <c r="O37" s="228"/>
+      <c r="P37" s="228"/>
+      <c r="Q37" s="228"/>
+      <c r="R37" s="228"/>
+      <c r="S37" s="228"/>
+      <c r="T37" s="228"/>
+      <c r="U37" s="229"/>
+      <c r="V37" s="221" t="s">
+        <v>46</v>
+      </c>
+      <c r="W37" s="222"/>
+      <c r="X37" s="223"/>
+      <c r="Y37" s="224" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z37" s="225"/>
+      <c r="AA37" s="225"/>
+      <c r="AB37" s="230"/>
+      <c r="AC37" s="231" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD37" s="232"/>
+      <c r="AE37" s="232"/>
+      <c r="AF37" s="233"/>
       <c r="AG37" s="26"/>
       <c r="AH37" s="26"/>
       <c r="AI37" s="26"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:35" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="26"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
-      <c r="E38" s="201" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="202"/>
-      <c r="G38" s="202"/>
-      <c r="H38" s="202"/>
-      <c r="I38" s="202"/>
-      <c r="J38" s="191" t="s">
-        <v>60</v>
-      </c>
-      <c r="K38" s="191"/>
-      <c r="L38" s="191"/>
-      <c r="M38" s="203" t="s">
-        <v>48</v>
-      </c>
-      <c r="N38" s="204"/>
-      <c r="O38" s="204"/>
-      <c r="P38" s="204"/>
-      <c r="Q38" s="204"/>
-      <c r="R38" s="204"/>
-      <c r="S38" s="205"/>
-      <c r="T38" s="203" t="s">
+      <c r="D38" s="26"/>
+      <c r="E38" s="107">
+        <v>1</v>
+      </c>
+      <c r="F38" s="218" t="s">
         <v>54</v>
       </c>
-      <c r="U38" s="204"/>
-      <c r="V38" s="204"/>
-      <c r="W38" s="204"/>
-      <c r="X38" s="204"/>
-      <c r="Y38" s="204"/>
-      <c r="Z38" s="204"/>
-      <c r="AA38" s="204"/>
-      <c r="AB38" s="204"/>
-      <c r="AC38" s="204"/>
-      <c r="AD38" s="205"/>
-    </row>
-    <row r="39" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G38" s="219"/>
+      <c r="H38" s="219"/>
+      <c r="I38" s="219"/>
+      <c r="J38" s="219"/>
+      <c r="K38" s="220"/>
+      <c r="L38" s="218" t="s">
+        <v>55</v>
+      </c>
+      <c r="M38" s="219"/>
+      <c r="N38" s="219"/>
+      <c r="O38" s="219"/>
+      <c r="P38" s="219"/>
+      <c r="Q38" s="219"/>
+      <c r="R38" s="219"/>
+      <c r="S38" s="219"/>
+      <c r="T38" s="219"/>
+      <c r="U38" s="220"/>
+      <c r="V38" s="234" t="s">
+        <v>56</v>
+      </c>
+      <c r="W38" s="235"/>
+      <c r="X38" s="236"/>
+      <c r="Y38" s="253" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z38" s="254"/>
+      <c r="AA38" s="254"/>
+      <c r="AB38" s="255"/>
+      <c r="AC38" s="218" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD38" s="219"/>
+      <c r="AE38" s="219"/>
+      <c r="AF38" s="220"/>
+      <c r="AG38" s="26"/>
+      <c r="AH38" s="26"/>
+      <c r="AI38" s="26"/>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A39" s="26"/>
       <c r="B39" s="26"/>
       <c r="C39" s="26"/>
-      <c r="E39" s="213" t="s">
-        <v>61</v>
-      </c>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="214"/>
-      <c r="I39" s="214"/>
-      <c r="J39" s="219" t="s">
-        <v>62</v>
-      </c>
-      <c r="K39" s="219"/>
-      <c r="L39" s="219"/>
-      <c r="M39" s="213" t="s">
-        <v>58</v>
-      </c>
-      <c r="N39" s="214"/>
-      <c r="O39" s="214"/>
-      <c r="P39" s="214"/>
-      <c r="Q39" s="214"/>
-      <c r="R39" s="214"/>
-      <c r="S39" s="215"/>
-      <c r="T39" s="213" t="s">
-        <v>58</v>
-      </c>
-      <c r="U39" s="214"/>
-      <c r="V39" s="214"/>
-      <c r="W39" s="214"/>
-      <c r="X39" s="214"/>
-      <c r="Y39" s="214"/>
-      <c r="Z39" s="214"/>
-      <c r="AA39" s="214"/>
-      <c r="AB39" s="214"/>
-      <c r="AC39" s="214"/>
-      <c r="AD39" s="215"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
+      <c r="W39" s="26"/>
+      <c r="X39" s="26"/>
+      <c r="Y39" s="26"/>
+      <c r="Z39" s="26"/>
+      <c r="AA39" s="26"/>
+      <c r="AB39" s="26"/>
+      <c r="AC39" s="26"/>
+      <c r="AD39" s="26"/>
+      <c r="AE39" s="26"/>
+      <c r="AF39" s="26"/>
+      <c r="AG39" s="26"/>
+      <c r="AH39" s="26"/>
+      <c r="AI39" s="26"/>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A40" s="26"/>
@@ -12180,6 +12522,31 @@
       <c r="A41" s="26"/>
       <c r="B41" s="26"/>
       <c r="C41" s="26"/>
+      <c r="D41" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
       <c r="AA41" s="26"/>
       <c r="AB41" s="26"/>
       <c r="AC41" s="26"/>
@@ -12194,9 +12561,7 @@
       <c r="A42" s="26"/>
       <c r="B42" s="26"/>
       <c r="C42" s="26"/>
-      <c r="D42" s="26" t="s">
-        <v>63</v>
-      </c>
+      <c r="D42" s="26"/>
       <c r="E42" s="26"/>
       <c r="F42" s="26"/>
       <c r="G42" s="26"/>
@@ -12234,7 +12599,9 @@
       <c r="B43" s="26"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
+      <c r="E43" s="108" t="s">
+        <v>112</v>
+      </c>
       <c r="F43" s="26"/>
       <c r="G43" s="26"/>
       <c r="H43" s="26"/>
@@ -12271,9 +12638,7 @@
       <c r="B44" s="26"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
-      <c r="E44" s="108" t="s">
-        <v>64</v>
-      </c>
+      <c r="E44" s="108"/>
       <c r="F44" s="26"/>
       <c r="G44" s="26"/>
       <c r="H44" s="26"/>
@@ -12309,29 +12674,9 @@
       <c r="A45" s="26"/>
       <c r="B45" s="26"/>
       <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
-      <c r="W45" s="26"/>
-      <c r="X45" s="26"/>
-      <c r="Y45" s="26"/>
-      <c r="Z45" s="26"/>
+      <c r="E45" s="82" t="s">
+        <v>113</v>
+      </c>
       <c r="AA45" s="26"/>
       <c r="AB45" s="26"/>
       <c r="AC45" s="26"/>
@@ -12346,9 +12691,28 @@
       <c r="A46" s="26"/>
       <c r="B46" s="26"/>
       <c r="C46" s="26"/>
-      <c r="E46" s="82" t="s">
-        <v>65</v>
-      </c>
+      <c r="D46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
+      <c r="W46" s="26"/>
+      <c r="X46" s="26"/>
+      <c r="Y46" s="26"/>
+      <c r="Z46" s="26"/>
       <c r="AA46" s="26"/>
       <c r="AB46" s="26"/>
       <c r="AC46" s="26"/>
@@ -12363,86 +12727,86 @@
       <c r="A47" s="26"/>
       <c r="B47" s="26"/>
       <c r="C47" s="26"/>
-      <c r="E47" s="201" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="202"/>
-      <c r="G47" s="202"/>
-      <c r="H47" s="202"/>
-      <c r="I47" s="202"/>
-      <c r="J47" s="191" t="s">
-        <v>60</v>
-      </c>
-      <c r="K47" s="191"/>
-      <c r="L47" s="191"/>
-      <c r="M47" s="203" t="s">
-        <v>48</v>
-      </c>
-      <c r="N47" s="204"/>
-      <c r="O47" s="204"/>
-      <c r="P47" s="204"/>
-      <c r="Q47" s="204"/>
-      <c r="R47" s="204"/>
-      <c r="S47" s="205"/>
-      <c r="T47" s="203" t="s">
-        <v>54</v>
-      </c>
-      <c r="U47" s="204"/>
-      <c r="V47" s="204"/>
-      <c r="W47" s="204"/>
-      <c r="X47" s="204"/>
-      <c r="Y47" s="204"/>
-      <c r="Z47" s="204"/>
-      <c r="AA47" s="204"/>
-      <c r="AB47" s="204"/>
-      <c r="AC47" s="204"/>
-      <c r="AD47" s="205"/>
-    </row>
-    <row r="48" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D47" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
+      <c r="W47" s="26"/>
+      <c r="X47" s="26"/>
+      <c r="Y47" s="26"/>
+      <c r="Z47" s="26"/>
+      <c r="AA47" s="26"/>
+      <c r="AB47" s="26"/>
+      <c r="AC47" s="26"/>
+      <c r="AD47" s="26"/>
+      <c r="AE47" s="26"/>
+      <c r="AF47" s="26"/>
+      <c r="AG47" s="26"/>
+      <c r="AH47" s="26"/>
+      <c r="AI47" s="26"/>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A48" s="26"/>
       <c r="B48" s="26"/>
       <c r="C48" s="26"/>
-      <c r="E48" s="213" t="s">
-        <v>61</v>
-      </c>
-      <c r="F48" s="214"/>
-      <c r="G48" s="214"/>
-      <c r="H48" s="214"/>
-      <c r="I48" s="214"/>
-      <c r="J48" s="219" t="s">
-        <v>66</v>
-      </c>
-      <c r="K48" s="219"/>
-      <c r="L48" s="219"/>
-      <c r="M48" s="213" t="s">
-        <v>67</v>
-      </c>
-      <c r="N48" s="214"/>
-      <c r="O48" s="214"/>
-      <c r="P48" s="214"/>
-      <c r="Q48" s="214"/>
-      <c r="R48" s="214"/>
-      <c r="S48" s="215"/>
-      <c r="T48" s="213" t="s">
-        <v>68</v>
-      </c>
-      <c r="U48" s="214"/>
-      <c r="V48" s="214"/>
-      <c r="W48" s="214"/>
-      <c r="X48" s="214"/>
-      <c r="Y48" s="214"/>
-      <c r="Z48" s="214"/>
-      <c r="AA48" s="214"/>
-      <c r="AB48" s="214"/>
-      <c r="AC48" s="214"/>
-      <c r="AD48" s="215"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="26"/>
+      <c r="AF48" s="26"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="26"/>
+      <c r="AI48" s="26"/>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A49" s="26"/>
       <c r="B49" s="26"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
+      <c r="E49" s="108" t="s">
+        <v>59</v>
+      </c>
       <c r="F49" s="26"/>
       <c r="G49" s="26"/>
       <c r="H49" s="26"/>
@@ -12479,6 +12843,7 @@
       <c r="B50" s="26"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
       <c r="F50" s="26"/>
       <c r="G50" s="26"/>
       <c r="H50" s="26"/>
@@ -12514,9 +12879,7 @@
       <c r="A51" s="26"/>
       <c r="B51" s="26"/>
       <c r="C51" s="26"/>
-      <c r="D51" s="26" t="s">
-        <v>69</v>
-      </c>
+      <c r="D51" s="26"/>
       <c r="E51" s="26"/>
       <c r="F51" s="26"/>
       <c r="G51" s="26"/>
@@ -12553,7 +12916,9 @@
       <c r="A52" s="26"/>
       <c r="B52" s="26"/>
       <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="D52" s="26" t="s">
+        <v>60</v>
+      </c>
       <c r="E52" s="26"/>
       <c r="F52" s="26"/>
       <c r="G52" s="26"/>
@@ -12591,9 +12956,7 @@
       <c r="B53" s="26"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
-      <c r="E53" s="108" t="s">
-        <v>70</v>
-      </c>
+      <c r="E53" s="26"/>
       <c r="F53" s="26"/>
       <c r="G53" s="26"/>
       <c r="H53" s="26"/>
@@ -12630,7 +12993,9 @@
       <c r="B54" s="26"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
+      <c r="E54" s="26" t="s">
+        <v>61</v>
+      </c>
       <c r="F54" s="26"/>
       <c r="G54" s="26"/>
       <c r="H54" s="26"/>
@@ -12703,9 +13068,7 @@
       <c r="A56" s="26"/>
       <c r="B56" s="26"/>
       <c r="C56" s="26"/>
-      <c r="D56" s="26" t="s">
-        <v>71</v>
-      </c>
+      <c r="D56" s="26"/>
       <c r="E56" s="26"/>
       <c r="F56" s="26"/>
       <c r="G56" s="26"/>
@@ -12739,222 +13102,211 @@
       <c r="AI56" s="26"/>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
-      <c r="P57" s="26"/>
-      <c r="Q57" s="26"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="26"/>
-      <c r="T57" s="26"/>
-      <c r="U57" s="26"/>
-      <c r="V57" s="26"/>
-      <c r="W57" s="26"/>
-      <c r="X57" s="26"/>
-      <c r="Y57" s="26"/>
-      <c r="Z57" s="26"/>
-      <c r="AA57" s="26"/>
-      <c r="AB57" s="26"/>
-      <c r="AC57" s="26"/>
-      <c r="AD57" s="26"/>
-      <c r="AE57" s="26"/>
-      <c r="AF57" s="26"/>
-      <c r="AG57" s="26"/>
-      <c r="AH57" s="26"/>
-      <c r="AI57" s="26"/>
+      <c r="C57" s="66" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
+      <c r="M57" s="66"/>
+      <c r="N57" s="66"/>
+      <c r="O57" s="66"/>
+      <c r="P57" s="66"/>
+      <c r="Q57" s="66"/>
+      <c r="R57" s="66"/>
+      <c r="S57" s="66"/>
+      <c r="T57" s="66"/>
+      <c r="U57" s="66"/>
+      <c r="V57" s="66"/>
+      <c r="W57" s="66"/>
+      <c r="X57" s="66"/>
+      <c r="Y57" s="66"/>
+      <c r="Z57" s="66"/>
+      <c r="AA57" s="66"/>
+      <c r="AB57" s="66"/>
+      <c r="AC57" s="66"/>
+      <c r="AD57" s="66"/>
+      <c r="AE57" s="66"/>
+      <c r="AF57" s="66"/>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="26"/>
-      <c r="Q58" s="26"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="26"/>
-      <c r="T58" s="26"/>
-      <c r="U58" s="26"/>
-      <c r="V58" s="26"/>
-      <c r="W58" s="26"/>
-      <c r="X58" s="26"/>
-      <c r="Y58" s="26"/>
-      <c r="Z58" s="26"/>
-      <c r="AA58" s="26"/>
-      <c r="AB58" s="26"/>
-      <c r="AC58" s="26"/>
-      <c r="AD58" s="26"/>
-      <c r="AE58" s="26"/>
-      <c r="AF58" s="26"/>
-      <c r="AG58" s="26"/>
-      <c r="AH58" s="26"/>
-      <c r="AI58" s="26"/>
-    </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="26"/>
-      <c r="Q59" s="26"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="26"/>
-      <c r="T59" s="26"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="26"/>
-      <c r="W59" s="26"/>
-      <c r="X59" s="26"/>
-      <c r="Y59" s="26"/>
-      <c r="Z59" s="26"/>
-      <c r="AA59" s="26"/>
-      <c r="AB59" s="26"/>
-      <c r="AC59" s="26"/>
-      <c r="AD59" s="26"/>
-      <c r="AE59" s="26"/>
-      <c r="AF59" s="26"/>
-      <c r="AG59" s="26"/>
-      <c r="AH59" s="26"/>
-      <c r="AI59" s="26"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
+      <c r="M58" s="66"/>
+      <c r="N58" s="66"/>
+      <c r="O58" s="66"/>
+      <c r="P58" s="66"/>
+      <c r="Q58" s="66"/>
+      <c r="R58" s="66"/>
+      <c r="S58" s="66"/>
+      <c r="T58" s="66"/>
+      <c r="U58" s="66"/>
+      <c r="V58" s="66"/>
+      <c r="W58" s="66"/>
+      <c r="X58" s="66"/>
+      <c r="Y58" s="66"/>
+      <c r="Z58" s="66"/>
+      <c r="AA58" s="66"/>
+      <c r="AB58" s="66"/>
+      <c r="AC58" s="66"/>
+      <c r="AD58" s="66"/>
+      <c r="AE58" s="66"/>
+      <c r="AF58" s="66"/>
+    </row>
+    <row r="59" spans="1:35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="66"/>
+      <c r="O59" s="66"/>
+      <c r="P59" s="66"/>
+      <c r="Q59" s="66"/>
+      <c r="R59" s="66"/>
+      <c r="S59" s="66"/>
+      <c r="T59" s="66"/>
+      <c r="U59" s="66"/>
+      <c r="V59" s="66"/>
+      <c r="W59" s="66"/>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="66"/>
+      <c r="Z59" s="66"/>
+      <c r="AA59" s="66"/>
+      <c r="AB59" s="66"/>
+      <c r="AC59" s="66"/>
+      <c r="AD59" s="66"/>
+      <c r="AE59" s="66"/>
+      <c r="AF59" s="66"/>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="26"/>
-      <c r="Q60" s="26"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="26"/>
-      <c r="T60" s="26"/>
-      <c r="U60" s="26"/>
-      <c r="V60" s="26"/>
-      <c r="W60" s="26"/>
-      <c r="X60" s="26"/>
-      <c r="Y60" s="26"/>
-      <c r="Z60" s="26"/>
-      <c r="AA60" s="26"/>
-      <c r="AB60" s="26"/>
-      <c r="AC60" s="26"/>
-      <c r="AD60" s="26"/>
-      <c r="AE60" s="26"/>
-      <c r="AF60" s="26"/>
-      <c r="AG60" s="26"/>
-      <c r="AH60" s="26"/>
-      <c r="AI60" s="26"/>
+      <c r="C60" s="66"/>
+      <c r="E60" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="37"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="37"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="37"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="37"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="37"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="37"/>
+      <c r="V60" s="37"/>
+      <c r="W60" s="37"/>
+      <c r="X60" s="37"/>
+      <c r="Y60" s="37"/>
+      <c r="Z60" s="37"/>
+      <c r="AA60" s="37"/>
+      <c r="AB60" s="37"/>
+      <c r="AC60" s="37"/>
+      <c r="AD60" s="109"/>
+      <c r="AE60" s="66"/>
+      <c r="AF60" s="66"/>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="C61" s="66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
-      <c r="M61" s="66"/>
-      <c r="N61" s="66"/>
-      <c r="O61" s="66"/>
-      <c r="P61" s="66"/>
-      <c r="Q61" s="66"/>
-      <c r="R61" s="66"/>
-      <c r="S61" s="66"/>
-      <c r="T61" s="66"/>
-      <c r="U61" s="66"/>
-      <c r="V61" s="66"/>
-      <c r="W61" s="66"/>
-      <c r="X61" s="66"/>
-      <c r="Y61" s="66"/>
-      <c r="Z61" s="66"/>
-      <c r="AA61" s="66"/>
-      <c r="AB61" s="66"/>
-      <c r="AC61" s="66"/>
-      <c r="AD61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="37"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="37"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="37"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="37"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="37"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="37"/>
+      <c r="V61" s="37"/>
+      <c r="W61" s="37"/>
+      <c r="X61" s="37"/>
+      <c r="Y61" s="37"/>
+      <c r="Z61" s="37"/>
+      <c r="AA61" s="37"/>
+      <c r="AB61" s="37"/>
+      <c r="AC61" s="37"/>
+      <c r="AD61" s="109"/>
       <c r="AE61" s="66"/>
       <c r="AF61" s="66"/>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C62" s="66"/>
-      <c r="D62" s="66" t="s">
-        <v>73</v>
-      </c>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="66"/>
-      <c r="M62" s="66"/>
-      <c r="N62" s="66"/>
-      <c r="O62" s="66"/>
-      <c r="P62" s="66"/>
-      <c r="Q62" s="66"/>
-      <c r="R62" s="66"/>
-      <c r="S62" s="66"/>
-      <c r="T62" s="66"/>
-      <c r="U62" s="66"/>
-      <c r="V62" s="66"/>
-      <c r="W62" s="66"/>
-      <c r="X62" s="66"/>
-      <c r="Y62" s="66"/>
-      <c r="Z62" s="66"/>
-      <c r="AA62" s="66"/>
-      <c r="AB62" s="66"/>
-      <c r="AC62" s="66"/>
-      <c r="AD62" s="66"/>
-      <c r="AE62" s="66"/>
-      <c r="AF62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="306" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="306"/>
+      <c r="G62" s="273" t="s">
+        <v>114</v>
+      </c>
+      <c r="H62" s="274"/>
+      <c r="I62" s="274"/>
+      <c r="J62" s="274"/>
+      <c r="K62" s="274"/>
+      <c r="L62" s="275"/>
+      <c r="M62" s="306" t="s">
+        <v>48</v>
+      </c>
+      <c r="N62" s="306"/>
+      <c r="O62" s="273" t="s">
+        <v>121</v>
+      </c>
+      <c r="P62" s="274"/>
+      <c r="Q62" s="274"/>
+      <c r="R62" s="274"/>
+      <c r="S62" s="274"/>
+      <c r="T62" s="274"/>
+      <c r="U62" s="274"/>
+      <c r="V62" s="274"/>
+      <c r="W62" s="274"/>
+      <c r="X62" s="274"/>
+      <c r="Y62" s="274"/>
+      <c r="Z62" s="274"/>
+      <c r="AA62" s="274"/>
+      <c r="AB62" s="274"/>
+      <c r="AC62" s="274"/>
+      <c r="AD62" s="274"/>
+      <c r="AE62" s="274"/>
+      <c r="AF62" s="274"/>
+      <c r="AG62" s="274"/>
+      <c r="AH62" s="275"/>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C63" s="66"/>
@@ -12990,34 +13342,35 @@
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.2">
       <c r="C64" s="66"/>
-      <c r="E64" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="37"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="37"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="37"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="37"/>
-      <c r="U64" s="37"/>
-      <c r="V64" s="37"/>
-      <c r="W64" s="37"/>
-      <c r="X64" s="37"/>
-      <c r="Y64" s="37"/>
-      <c r="Z64" s="37"/>
-      <c r="AA64" s="37"/>
-      <c r="AB64" s="37"/>
-      <c r="AC64" s="37"/>
-      <c r="AD64" s="109"/>
+      <c r="D64" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
+      <c r="M64" s="66"/>
+      <c r="N64" s="66"/>
+      <c r="O64" s="66"/>
+      <c r="P64" s="66"/>
+      <c r="Q64" s="66"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="66"/>
+      <c r="T64" s="66"/>
+      <c r="U64" s="66"/>
+      <c r="V64" s="66"/>
+      <c r="W64" s="66"/>
+      <c r="X64" s="66"/>
+      <c r="Y64" s="66"/>
+      <c r="Z64" s="66"/>
+      <c r="AA64" s="66"/>
+      <c r="AB64" s="66"/>
+      <c r="AC64" s="66"/>
+      <c r="AD64" s="66"/>
       <c r="AE64" s="66"/>
       <c r="AF64" s="66"/>
     </row>
@@ -13056,262 +13409,272 @@
     <row r="66" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C66" s="66"/>
       <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="66"/>
-      <c r="M66" s="66"/>
-      <c r="N66" s="66"/>
-      <c r="O66" s="66"/>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="66"/>
-      <c r="R66" s="66"/>
-      <c r="S66" s="66"/>
-      <c r="T66" s="66"/>
-      <c r="U66" s="66"/>
-      <c r="V66" s="66"/>
-      <c r="W66" s="66"/>
-      <c r="X66" s="66"/>
-      <c r="Y66" s="66"/>
-      <c r="Z66" s="66"/>
-      <c r="AA66" s="66"/>
-      <c r="AB66" s="66"/>
-      <c r="AC66" s="66"/>
-      <c r="AD66" s="66"/>
-      <c r="AE66" s="66"/>
-      <c r="AF66" s="66"/>
+      <c r="E66" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="F66" s="247" t="s">
+        <v>64</v>
+      </c>
+      <c r="G66" s="248"/>
+      <c r="H66" s="248"/>
+      <c r="I66" s="249"/>
+      <c r="J66" s="247" t="s">
+        <v>65</v>
+      </c>
+      <c r="K66" s="248"/>
+      <c r="L66" s="248"/>
+      <c r="M66" s="249"/>
+      <c r="N66" s="246" t="s">
+        <v>66</v>
+      </c>
+      <c r="O66" s="246"/>
+      <c r="P66" s="246"/>
+      <c r="Q66" s="246"/>
+      <c r="R66" s="246"/>
+      <c r="S66" s="246"/>
+      <c r="T66" s="246"/>
+      <c r="U66" s="246"/>
+      <c r="V66" s="246"/>
+      <c r="W66" s="247" t="s">
+        <v>67</v>
+      </c>
+      <c r="X66" s="248"/>
+      <c r="Y66" s="248"/>
+      <c r="Z66" s="248"/>
+      <c r="AA66" s="248"/>
+      <c r="AB66" s="248"/>
+      <c r="AC66" s="249"/>
+      <c r="AD66" s="247" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE66" s="248"/>
+      <c r="AF66" s="248"/>
+      <c r="AG66" s="248"/>
+      <c r="AH66" s="249"/>
     </row>
     <row r="67" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C67" s="66"/>
-      <c r="D67" s="66" t="s">
-        <v>75</v>
-      </c>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
-      <c r="M67" s="66"/>
-      <c r="N67" s="66"/>
-      <c r="O67" s="66"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="66"/>
-      <c r="R67" s="66"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="66"/>
-      <c r="U67" s="66"/>
-      <c r="V67" s="66"/>
-      <c r="W67" s="66"/>
-      <c r="X67" s="66"/>
-      <c r="Y67" s="66"/>
-      <c r="Z67" s="66"/>
-      <c r="AA67" s="66"/>
-      <c r="AB67" s="66"/>
-      <c r="AC67" s="66"/>
-      <c r="AD67" s="66"/>
-      <c r="AE67" s="66"/>
-      <c r="AF67" s="66"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="286"/>
+      <c r="F67" s="250"/>
+      <c r="G67" s="251"/>
+      <c r="H67" s="251"/>
+      <c r="I67" s="252"/>
+      <c r="J67" s="250"/>
+      <c r="K67" s="251"/>
+      <c r="L67" s="251"/>
+      <c r="M67" s="252"/>
+      <c r="N67" s="246" t="s">
+        <v>68</v>
+      </c>
+      <c r="O67" s="246"/>
+      <c r="P67" s="246"/>
+      <c r="Q67" s="246"/>
+      <c r="R67" s="246"/>
+      <c r="S67" s="226" t="s">
+        <v>65</v>
+      </c>
+      <c r="T67" s="226"/>
+      <c r="U67" s="226"/>
+      <c r="V67" s="226"/>
+      <c r="W67" s="250"/>
+      <c r="X67" s="251"/>
+      <c r="Y67" s="251"/>
+      <c r="Z67" s="251"/>
+      <c r="AA67" s="251"/>
+      <c r="AB67" s="251"/>
+      <c r="AC67" s="252"/>
+      <c r="AD67" s="250"/>
+      <c r="AE67" s="251"/>
+      <c r="AF67" s="251"/>
+      <c r="AG67" s="251"/>
+      <c r="AH67" s="252"/>
     </row>
     <row r="68" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C68" s="66"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="66"/>
-      <c r="L68" s="66"/>
-      <c r="M68" s="66"/>
-      <c r="N68" s="66"/>
-      <c r="O68" s="66"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="66"/>
-      <c r="R68" s="66"/>
-      <c r="S68" s="66"/>
-      <c r="T68" s="66"/>
-      <c r="U68" s="66"/>
-      <c r="V68" s="66"/>
-      <c r="W68" s="66"/>
-      <c r="X68" s="66"/>
-      <c r="Y68" s="66"/>
-      <c r="Z68" s="66"/>
-      <c r="AA68" s="66"/>
-      <c r="AB68" s="66"/>
-      <c r="AC68" s="66"/>
-      <c r="AD68" s="66"/>
-      <c r="AE68" s="66"/>
-      <c r="AF68" s="66"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="110">
+        <v>1</v>
+      </c>
+      <c r="F68" s="240" t="s">
+        <v>115</v>
+      </c>
+      <c r="G68" s="241"/>
+      <c r="H68" s="241"/>
+      <c r="I68" s="242"/>
+      <c r="J68" s="240" t="s">
+        <v>116</v>
+      </c>
+      <c r="K68" s="241"/>
+      <c r="L68" s="241"/>
+      <c r="M68" s="242"/>
+      <c r="N68" s="243" t="s">
+        <v>117</v>
+      </c>
+      <c r="O68" s="244"/>
+      <c r="P68" s="244"/>
+      <c r="Q68" s="244"/>
+      <c r="R68" s="244"/>
+      <c r="S68" s="245" t="s">
+        <v>118</v>
+      </c>
+      <c r="T68" s="245"/>
+      <c r="U68" s="245"/>
+      <c r="V68" s="245"/>
+      <c r="W68" s="237"/>
+      <c r="X68" s="238"/>
+      <c r="Y68" s="238"/>
+      <c r="Z68" s="238"/>
+      <c r="AA68" s="238"/>
+      <c r="AB68" s="238"/>
+      <c r="AC68" s="239"/>
+      <c r="AD68" s="237"/>
+      <c r="AE68" s="238"/>
+      <c r="AF68" s="238"/>
+      <c r="AG68" s="238"/>
+      <c r="AH68" s="239"/>
     </row>
     <row r="69" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="155" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69" s="149" t="s">
-        <v>76</v>
-      </c>
-      <c r="G69" s="150"/>
-      <c r="H69" s="150"/>
-      <c r="I69" s="151"/>
-      <c r="J69" s="149" t="s">
-        <v>77</v>
-      </c>
-      <c r="K69" s="150"/>
-      <c r="L69" s="150"/>
-      <c r="M69" s="151"/>
-      <c r="N69" s="190" t="s">
-        <v>78</v>
-      </c>
-      <c r="O69" s="190"/>
-      <c r="P69" s="190"/>
-      <c r="Q69" s="190"/>
-      <c r="R69" s="190"/>
-      <c r="S69" s="190"/>
-      <c r="T69" s="190"/>
-      <c r="U69" s="190"/>
-      <c r="V69" s="190"/>
-      <c r="W69" s="149" t="s">
-        <v>79</v>
-      </c>
-      <c r="X69" s="150"/>
-      <c r="Y69" s="150"/>
-      <c r="Z69" s="150"/>
-      <c r="AA69" s="150"/>
-      <c r="AB69" s="150"/>
-      <c r="AC69" s="151"/>
-      <c r="AD69" s="149" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE69" s="150"/>
-      <c r="AF69" s="150"/>
-      <c r="AG69" s="150"/>
-      <c r="AH69" s="151"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="110">
+        <v>2</v>
+      </c>
+      <c r="F69" s="240" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" s="241"/>
+      <c r="H69" s="241"/>
+      <c r="I69" s="242"/>
+      <c r="J69" s="240" t="s">
+        <v>108</v>
+      </c>
+      <c r="K69" s="241"/>
+      <c r="L69" s="241"/>
+      <c r="M69" s="242"/>
+      <c r="N69" s="243" t="s">
+        <v>117</v>
+      </c>
+      <c r="O69" s="244"/>
+      <c r="P69" s="244"/>
+      <c r="Q69" s="244"/>
+      <c r="R69" s="244"/>
+      <c r="S69" s="245" t="s">
+        <v>119</v>
+      </c>
+      <c r="T69" s="245"/>
+      <c r="U69" s="245"/>
+      <c r="V69" s="245"/>
+      <c r="W69" s="237"/>
+      <c r="X69" s="238"/>
+      <c r="Y69" s="238"/>
+      <c r="Z69" s="238"/>
+      <c r="AA69" s="238"/>
+      <c r="AB69" s="238"/>
+      <c r="AC69" s="239"/>
+      <c r="AD69" s="237"/>
+      <c r="AE69" s="238"/>
+      <c r="AF69" s="238"/>
+      <c r="AG69" s="238"/>
+      <c r="AH69" s="239"/>
     </row>
     <row r="70" spans="3:34" x14ac:dyDescent="0.2">
       <c r="C70" s="66"/>
       <c r="D70" s="37"/>
-      <c r="E70" s="156"/>
-      <c r="F70" s="152"/>
-      <c r="G70" s="153"/>
-      <c r="H70" s="153"/>
-      <c r="I70" s="154"/>
-      <c r="J70" s="152"/>
-      <c r="K70" s="153"/>
-      <c r="L70" s="153"/>
-      <c r="M70" s="154"/>
-      <c r="N70" s="190" t="s">
-        <v>80</v>
-      </c>
-      <c r="O70" s="190"/>
-      <c r="P70" s="190"/>
-      <c r="Q70" s="190"/>
-      <c r="R70" s="190"/>
-      <c r="S70" s="191" t="s">
-        <v>77</v>
-      </c>
-      <c r="T70" s="191"/>
-      <c r="U70" s="191"/>
-      <c r="V70" s="191"/>
-      <c r="W70" s="152"/>
-      <c r="X70" s="153"/>
-      <c r="Y70" s="153"/>
-      <c r="Z70" s="153"/>
-      <c r="AA70" s="153"/>
-      <c r="AB70" s="153"/>
-      <c r="AC70" s="154"/>
-      <c r="AD70" s="152"/>
-      <c r="AE70" s="153"/>
-      <c r="AF70" s="153"/>
-      <c r="AG70" s="153"/>
-      <c r="AH70" s="154"/>
-    </row>
-    <row r="71" spans="3:34" x14ac:dyDescent="0.2">
-      <c r="C71" s="66"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="110"/>
-      <c r="F71" s="195"/>
-      <c r="G71" s="196"/>
-      <c r="H71" s="196"/>
-      <c r="I71" s="197"/>
-      <c r="J71" s="195"/>
-      <c r="K71" s="196"/>
-      <c r="L71" s="196"/>
-      <c r="M71" s="197"/>
-      <c r="N71" s="198"/>
-      <c r="O71" s="199"/>
-      <c r="P71" s="199"/>
-      <c r="Q71" s="199"/>
-      <c r="R71" s="199"/>
-      <c r="S71" s="200"/>
-      <c r="T71" s="200"/>
-      <c r="U71" s="200"/>
-      <c r="V71" s="200"/>
-      <c r="W71" s="192"/>
-      <c r="X71" s="193"/>
-      <c r="Y71" s="193"/>
-      <c r="Z71" s="193"/>
-      <c r="AA71" s="193"/>
-      <c r="AB71" s="193"/>
-      <c r="AC71" s="194"/>
-      <c r="AD71" s="192"/>
-      <c r="AE71" s="193"/>
-      <c r="AF71" s="193"/>
-      <c r="AG71" s="193"/>
-      <c r="AH71" s="194"/>
+      <c r="E70" s="110">
+        <v>3</v>
+      </c>
+      <c r="F70" s="240" t="s">
+        <v>109</v>
+      </c>
+      <c r="G70" s="241"/>
+      <c r="H70" s="241"/>
+      <c r="I70" s="242"/>
+      <c r="J70" s="240" t="s">
+        <v>110</v>
+      </c>
+      <c r="K70" s="241"/>
+      <c r="L70" s="241"/>
+      <c r="M70" s="242"/>
+      <c r="N70" s="243" t="s">
+        <v>117</v>
+      </c>
+      <c r="O70" s="244"/>
+      <c r="P70" s="244"/>
+      <c r="Q70" s="244"/>
+      <c r="R70" s="244"/>
+      <c r="S70" s="245" t="s">
+        <v>120</v>
+      </c>
+      <c r="T70" s="245"/>
+      <c r="U70" s="245"/>
+      <c r="V70" s="245"/>
+      <c r="W70" s="237"/>
+      <c r="X70" s="238"/>
+      <c r="Y70" s="238"/>
+      <c r="Z70" s="238"/>
+      <c r="AA70" s="238"/>
+      <c r="AB70" s="238"/>
+      <c r="AC70" s="239"/>
+      <c r="AD70" s="237"/>
+      <c r="AE70" s="238"/>
+      <c r="AF70" s="238"/>
+      <c r="AG70" s="238"/>
+      <c r="AH70" s="239"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AD39"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M47:S47"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="T47:AD47"/>
-    <mergeCell ref="T48:AD48"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="J47:L47"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AD38"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="L34:U34"/>
-    <mergeCell ref="V34:X34"/>
-    <mergeCell ref="Y34:AB34"/>
-    <mergeCell ref="AC34:AF34"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="L35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="AD71:AH71"/>
-    <mergeCell ref="W71:AC71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="N71:R71"/>
-    <mergeCell ref="S71:V71"/>
-    <mergeCell ref="J71:M71"/>
-    <mergeCell ref="N69:V69"/>
-    <mergeCell ref="N70:R70"/>
-    <mergeCell ref="S70:V70"/>
-    <mergeCell ref="W69:AC70"/>
-    <mergeCell ref="AD69:AH70"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="J69:M70"/>
+    <mergeCell ref="E62:F62"/>
+    <mergeCell ref="G62:L62"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="O62:AH62"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="J69:M69"/>
+    <mergeCell ref="N69:R69"/>
+    <mergeCell ref="S69:V69"/>
+    <mergeCell ref="W69:AC69"/>
+    <mergeCell ref="AD69:AH69"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="J68:M68"/>
+    <mergeCell ref="N68:R68"/>
+    <mergeCell ref="S68:V68"/>
+    <mergeCell ref="W68:AC68"/>
+    <mergeCell ref="AD68:AH68"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="F66:I67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="J66:M67"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="D8:D9"/>
@@ -13326,39 +13689,29 @@
     <mergeCell ref="M28:N28"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="F69:I70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="N66:V66"/>
+    <mergeCell ref="N67:R67"/>
+    <mergeCell ref="S67:V67"/>
+    <mergeCell ref="W66:AC67"/>
+    <mergeCell ref="AD66:AH67"/>
+    <mergeCell ref="AD70:AH70"/>
+    <mergeCell ref="W70:AC70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="N70:R70"/>
+    <mergeCell ref="S70:V70"/>
+    <mergeCell ref="J70:M70"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="L37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:U38"/>
+    <mergeCell ref="V38:X38"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations count="2">
@@ -13376,221 +13729,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="30" max="34" man="1"/>
+    <brk id="33" max="34" man="1"/>
   </rowBreaks>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr codeName="Sheet5">
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AI6"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="4.83203125" style="82"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!A1")&lt;&gt;"",INDIRECT("'Revision history'!A1"),"")</f>
-        <v>Project name</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="118" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!E1")&lt;&gt;"",INDIRECT("'Revision history'!E1"),"")</f>
-        <v>Sample Project</v>
-      </c>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
-      <c r="I1" s="119"/>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="124" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!O1")&lt;&gt;"",INDIRECT("'Revision history'!O1"),"")</f>
-        <v>Deliverable name</v>
-      </c>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="223" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!S1")&lt;&gt;"",INDIRECT("'Revision history'!S1"),"")</f>
-        <v>System Function Design Document(Web Services)</v>
-      </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="121" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!AA1")&lt;&gt;"",INDIRECT("'Revision history'!AA1"),"")</f>
-        <v>Prepared by</v>
-      </c>
-      <c r="AB1" s="123"/>
-      <c r="AC1" s="226" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!AC1")&lt;&gt;"",INDIRECT("'Revision history'!AC1"),"")</f>
-        <v>TIS</v>
-      </c>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="227"/>
-      <c r="AF1" s="228"/>
-      <c r="AG1" s="115">
-        <f ca="1">IF(INDIRECT("'Revision history'!AG1")&lt;&gt;"",INDIRECT("'Revision history'!AG1"),"")</f>
-        <v>43718</v>
-      </c>
-      <c r="AH1" s="116"/>
-      <c r="AI1" s="117"/>
-    </row>
-    <row r="2" spans="1:35" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!A2")&lt;&gt;"",INDIRECT("'Revision history'!A2"),"")</f>
-        <v>System name</v>
-      </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="118" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!E2")&lt;&gt;"",INDIRECT("'Revision history'!E2"),"")</f>
-        <v>Sample System</v>
-      </c>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="286"/>
-      <c r="Q2" s="286"/>
-      <c r="R2" s="128"/>
-      <c r="S2" s="232"/>
-      <c r="T2" s="233"/>
-      <c r="U2" s="233"/>
-      <c r="V2" s="233"/>
-      <c r="W2" s="233"/>
-      <c r="X2" s="233"/>
-      <c r="Y2" s="233"/>
-      <c r="Z2" s="234"/>
-      <c r="AA2" s="121" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!AA2")&lt;&gt;"",INDIRECT("'Revision history'!AA2"),"")</f>
-        <v>Changes</v>
-      </c>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="226" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!AC2")&lt;&gt;"",INDIRECT("'Revision history'!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="227"/>
-      <c r="AE2" s="227"/>
-      <c r="AF2" s="228"/>
-      <c r="AG2" s="115" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!AG2")&lt;&gt;"",INDIRECT("'Revision history'!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="116"/>
-      <c r="AI2" s="117"/>
-    </row>
-    <row r="3" spans="1:35" s="21" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="121" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!A3")&lt;&gt;"",INDIRECT("'Revision history'!A3"),"")</f>
-        <v>Sub-system name</v>
-      </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="118" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!E3")&lt;&gt;"",INDIRECT("'Revision history'!E3"),"")</f>
-        <v>Client Management System</v>
-      </c>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
-      <c r="N3" s="120"/>
-      <c r="O3" s="129"/>
-      <c r="P3" s="130"/>
-      <c r="Q3" s="130"/>
-      <c r="R3" s="131"/>
-      <c r="S3" s="241"/>
-      <c r="T3" s="242"/>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
-      <c r="W3" s="242"/>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="242"/>
-      <c r="Z3" s="243"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="226" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!AC3")&lt;&gt;"",INDIRECT("'Revision history'!AC3"),"")</f>
-        <v/>
-      </c>
-      <c r="AD3" s="227"/>
-      <c r="AE3" s="227"/>
-      <c r="AF3" s="228"/>
-      <c r="AG3" s="115" t="str">
-        <f ca="1">IF(INDIRECT("'Revision history'!AG3")&lt;&gt;"",INDIRECT("'Revision history'!AG3"),"")</f>
-        <v/>
-      </c>
-      <c r="AH3" s="116"/>
-      <c r="AI3" s="117"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C5" s="82" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
-  </mergeCells>
-  <phoneticPr fontId="4"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13611,7 +13751,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="111" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -13631,17 +13771,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="113" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="113" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="113" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
